--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\Utrecht\Projects\CLARIAH CORE\WP3\VKL\tarspdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B20F4B-F814-4EDB-A11C-A01B9A8A8B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4362CAEF-A560-4C5A-B25C-549243955671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="720" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$155</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1407,19 +1406,7 @@
     <t>kan weg=Vcbijzin</t>
   </si>
   <si>
-    <t>ov_fase4</t>
-  </si>
-  <si>
-    <t>ov_fase5</t>
-  </si>
-  <si>
     <t>ov_fase7</t>
-  </si>
-  <si>
-    <t>ov_fase3</t>
-  </si>
-  <si>
-    <t>ov_fase2</t>
   </si>
   <si>
     <t>Must take care of vc/inf vc/ppart cases, indefinitely deep; special function requires: sziplus6</t>
@@ -1886,6 +1873,18 @@
   </si>
   <si>
     <t>//node[((@rel="vc" or @rel="su") and (@cat="cp" or @cat="whsub")) or %directerede_vcbijzin%]</t>
+  </si>
+  <si>
+    <t>ov_fase2, ovme2</t>
+  </si>
+  <si>
+    <t>ov_fase3, ovme3</t>
+  </si>
+  <si>
+    <t>ov_fase4,ovme4</t>
+  </si>
+  <si>
+    <t>ov_fase5,ovme5</t>
   </si>
 </sst>
 </file>
@@ -2306,11 +2305,11 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F67" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2371,13 +2370,13 @@
         <v>401</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>160</v>
@@ -2418,10 +2417,10 @@
         <v>375</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2459,10 +2458,10 @@
         <v>374</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -2500,7 +2499,7 @@
         <v>375</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -2535,7 +2534,7 @@
         <v>375</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>194</v>
@@ -2564,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>374</v>
@@ -2573,7 +2572,7 @@
         <v>375</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>381</v>
@@ -2605,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>375</v>
@@ -2614,7 +2613,7 @@
         <v>375</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
@@ -2652,7 +2651,7 @@
         <v>375</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -2690,7 +2689,7 @@
         <v>374</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>397</v>
@@ -2719,7 +2718,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>374</v>
@@ -2728,7 +2727,7 @@
         <v>375</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -2763,7 +2762,7 @@
         <v>375</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -2783,7 +2782,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>374</v>
@@ -2795,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>374</v>
@@ -2804,7 +2803,7 @@
         <v>375</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2839,7 +2838,7 @@
         <v>375</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -2868,7 +2867,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>375</v>
@@ -2877,7 +2876,7 @@
         <v>375</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
@@ -2903,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>374</v>
@@ -2912,7 +2911,7 @@
         <v>375</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -2932,7 +2931,7 @@
         <v>374</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>375</v>
@@ -2941,7 +2940,7 @@
         <v>375</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,7 +2972,7 @@
         <v>374</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,7 +2989,7 @@
         <v>202</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>438</v>
@@ -3011,10 +3010,10 @@
         <v>375</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3043,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>374</v>
@@ -3052,7 +3051,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3083,7 @@
         <v>375</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>374</v>
@@ -3119,7 +3118,7 @@
         <v>375</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>374</v>
@@ -3154,7 +3153,7 @@
         <v>375</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,7 +3185,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>374</v>
@@ -3195,7 +3194,7 @@
         <v>375</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
@@ -3230,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>374</v>
@@ -3239,10 +3238,10 @@
         <v>375</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3273,7 @@
         <v>375</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3300,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>374</v>
@@ -3309,10 +3308,10 @@
         <v>375</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,7 +3346,7 @@
         <v>375</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3381,7 @@
         <v>374</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,7 +3416,7 @@
         <v>375</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>395</v>
@@ -3455,7 +3454,7 @@
         <v>374</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>194</v>
@@ -3493,7 +3492,7 @@
         <v>375</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3531,7 +3530,7 @@
         <v>375</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3571,7 @@
         <v>375</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,7 +3606,7 @@
         <v>375</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,7 +3641,7 @@
         <v>374</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3677,7 +3676,7 @@
         <v>374</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,7 +3711,7 @@
         <v>375</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,7 +3743,7 @@
         <v>385</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>374</v>
@@ -3753,7 +3752,7 @@
         <v>375</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
@@ -3785,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>374</v>
@@ -3794,7 +3793,7 @@
         <v>375</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3822,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>374</v>
@@ -3832,10 +3831,10 @@
         <v>374</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3869,7 @@
         <v>374</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3889,7 @@
         <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>374</v>
@@ -3908,7 +3907,7 @@
         <v>375</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>163</v>
@@ -3931,7 +3930,7 @@
         <v>432</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>374</v>
@@ -3943,7 +3942,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>374</v>
@@ -3952,7 +3951,7 @@
         <v>375</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>380</v>
@@ -3981,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>374</v>
@@ -3990,7 +3989,7 @@
         <v>375</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -4016,7 +4015,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>374</v>
@@ -4025,7 +4024,7 @@
         <v>375</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,7 +4059,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>374</v>
@@ -4069,7 +4068,7 @@
         <v>375</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -4095,7 +4094,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>374</v>
@@ -4104,7 +4103,7 @@
         <v>375</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>194</v>
@@ -4124,7 +4123,7 @@
         <v>375</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>375</v>
@@ -4133,7 +4132,7 @@
         <v>375</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>189</v>
@@ -4171,7 +4170,7 @@
         <v>375</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -4197,7 +4196,7 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>374</v>
@@ -4206,7 +4205,7 @@
         <v>375</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,7 +4240,7 @@
         <v>375</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,7 +4278,7 @@
         <v>375</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,7 +4304,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>374</v>
@@ -4314,7 +4313,7 @@
         <v>375</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,7 +4342,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>374</v>
@@ -4352,7 +4351,7 @@
         <v>375</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,7 +4386,7 @@
         <v>374</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,7 +4418,7 @@
         <v>375</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="144" x14ac:dyDescent="0.3">
@@ -4445,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>375</v>
@@ -4454,7 +4453,7 @@
         <v>375</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,7 +4491,7 @@
         <v>374</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,7 +4529,7 @@
         <v>375</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,7 +4567,7 @@
         <v>375</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,7 +4602,7 @@
         <v>375</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>447</v>
@@ -4641,7 +4640,7 @@
         <v>375</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>448</v>
@@ -4679,7 +4678,7 @@
         <v>375</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>446</v>
@@ -4717,7 +4716,7 @@
         <v>374</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,7 +4754,7 @@
         <v>374</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,7 +4792,7 @@
         <v>374</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,7 +4824,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>374</v>
@@ -4834,7 +4833,7 @@
         <v>375</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,7 +4865,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>374</v>
@@ -4875,7 +4874,7 @@
         <v>375</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,7 +4906,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>374</v>
@@ -4916,7 +4915,7 @@
         <v>374</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4947,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>374</v>
@@ -4957,7 +4956,7 @@
         <v>374</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,7 +4976,7 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>374</v>
@@ -4989,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>374</v>
@@ -4998,7 +4997,7 @@
         <v>374</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,7 +5017,7 @@
         <v>430</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>453</v>
+        <v>580</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>374</v>
@@ -5036,7 +5035,7 @@
         <v>375</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,7 +5055,7 @@
         <v>197</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>452</v>
+        <v>581</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>374</v>
@@ -5068,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>374</v>
@@ -5077,7 +5076,7 @@
         <v>375</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,7 +5096,7 @@
         <v>198</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>374</v>
@@ -5115,7 +5114,7 @@
         <v>375</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,7 +5146,7 @@
         <v>375</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,7 +5181,7 @@
         <v>375</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>195</v>
@@ -5205,7 +5204,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>449</v>
+        <v>582</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>374</v>
@@ -5217,7 +5216,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>374</v>
@@ -5226,7 +5225,7 @@
         <v>375</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,7 +5245,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>374</v>
@@ -5258,7 +5257,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>374</v>
@@ -5267,7 +5266,7 @@
         <v>375</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,7 +5295,7 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>374</v>
@@ -5305,7 +5304,7 @@
         <v>375</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,7 +5339,7 @@
         <v>375</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>168</v>
@@ -5369,7 +5368,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>374</v>
@@ -5378,7 +5377,7 @@
         <v>375</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -5407,7 +5406,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>374</v>
@@ -5416,7 +5415,7 @@
         <v>375</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -5442,7 +5441,7 @@
         <v>375</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -5480,7 +5479,7 @@
         <v>375</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,7 +5511,7 @@
         <v>375</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,7 +5543,7 @@
         <v>375</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,7 +5575,7 @@
         <v>375</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
@@ -5593,7 +5592,7 @@
         <v>406</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>374</v>
@@ -5605,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>374</v>
@@ -5614,7 +5613,7 @@
         <v>375</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>374</v>
@@ -5649,7 +5648,7 @@
         <v>375</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,7 +5683,7 @@
         <v>375</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,7 +5700,7 @@
         <v>407</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>374</v>
@@ -5713,7 +5712,7 @@
         <v>410</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>374</v>
@@ -5722,7 +5721,7 @@
         <v>375</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,7 +5738,7 @@
         <v>374</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>375</v>
@@ -5748,7 +5747,7 @@
         <v>375</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,7 +5767,7 @@
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>374</v>
@@ -5780,7 +5779,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>374</v>
@@ -5789,7 +5788,7 @@
         <v>374</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,7 +5826,7 @@
         <v>374</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>161</v>
@@ -5850,7 +5849,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>374</v>
@@ -5862,7 +5861,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>374</v>
@@ -5871,7 +5870,7 @@
         <v>374</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,7 +5905,7 @@
         <v>374</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
@@ -5923,13 +5922,13 @@
         <v>374</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>374</v>
@@ -5938,7 +5937,7 @@
         <v>375</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,7 +5969,7 @@
         <v>375</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,10 +6007,10 @@
         <v>375</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,7 +6039,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>374</v>
@@ -6049,7 +6048,7 @@
         <v>374</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="72" x14ac:dyDescent="0.3">
@@ -6075,7 +6074,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>374</v>
@@ -6084,7 +6083,7 @@
         <v>375</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,7 +6118,7 @@
         <v>375</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,7 +6156,7 @@
         <v>375</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,10 +6191,10 @@
         <v>375</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>172</v>
@@ -6224,7 +6223,7 @@
         <v>375</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>379</v>
@@ -6259,7 +6258,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>374</v>
@@ -6268,7 +6267,7 @@
         <v>375</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>165</v>
@@ -6300,7 +6299,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>374</v>
@@ -6309,10 +6308,10 @@
         <v>375</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,7 +6340,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>374</v>
@@ -6350,10 +6349,10 @@
         <v>374</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>165</v>
@@ -6382,7 +6381,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>374</v>
@@ -6391,7 +6390,7 @@
         <v>375</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,7 +6423,7 @@
         <v>375</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,7 +6458,7 @@
         <v>374</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6495,10 +6494,10 @@
         <v>375</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,7 +6532,7 @@
         <v>375</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,7 +6546,7 @@
         <v>202</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>374</v>
@@ -6568,7 +6567,7 @@
         <v>374</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>374</v>
@@ -6603,10 +6602,10 @@
         <v>375</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,7 +6634,7 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>374</v>
@@ -6644,7 +6643,7 @@
         <v>375</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,7 +6671,7 @@
         <v>375</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,7 +6696,7 @@
         <v>375</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,7 +6731,7 @@
         <v>375</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>194</v>
@@ -6755,7 +6754,7 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>374</v>
@@ -6767,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>374</v>
@@ -6776,7 +6775,7 @@
         <v>375</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,7 +6801,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>374</v>
@@ -6811,7 +6810,7 @@
         <v>375</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,7 +6836,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>375</v>
@@ -6846,7 +6845,7 @@
         <v>374</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,7 +6880,7 @@
         <v>374</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>374</v>
@@ -6922,7 +6921,7 @@
         <v>375</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,7 +6953,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>374</v>
@@ -6963,7 +6962,7 @@
         <v>375</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q125" s="2" t="s">
         <v>403</v>
@@ -6998,7 +6997,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>374</v>
@@ -7007,7 +7006,7 @@
         <v>374</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -7039,7 +7038,7 @@
         <v>375</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>193</v>
@@ -7068,7 +7067,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>374</v>
@@ -7077,7 +7076,7 @@
         <v>375</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,7 +7108,7 @@
         <v>375</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,7 +7140,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>374</v>
@@ -7150,7 +7149,7 @@
         <v>375</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,7 +7181,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>374</v>
@@ -7191,7 +7190,7 @@
         <v>375</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,7 +7210,7 @@
         <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
@@ -7226,7 +7225,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>374</v>
@@ -7235,10 +7234,10 @@
         <v>375</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,7 +7267,7 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>374</v>
@@ -7277,7 +7276,7 @@
         <v>375</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,7 +7297,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>374</v>
@@ -7316,7 +7315,7 @@
         <v>375</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -7349,7 +7348,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>374</v>
@@ -7358,7 +7357,7 @@
         <v>375</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,7 +7377,7 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>374</v>
@@ -7396,7 +7395,7 @@
         <v>375</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,7 +7421,7 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>374</v>
@@ -7431,7 +7430,7 @@
         <v>375</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,10 +7459,10 @@
         <v>375</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
@@ -7489,7 +7488,7 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>374</v>
@@ -7498,7 +7497,7 @@
         <v>375</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -7524,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>374</v>
@@ -7533,7 +7532,7 @@
         <v>374</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -7568,7 +7567,7 @@
         <v>375</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>206</v>
@@ -7585,7 +7584,7 @@
         <v>203</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>374</v>
@@ -7603,7 +7602,7 @@
         <v>375</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q142" s="12" t="s">
         <v>384</v>
@@ -7629,7 +7628,7 @@
         <v>410</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>374</v>
@@ -7638,7 +7637,7 @@
         <v>375</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q143" s="2" t="s">
         <v>420</v>
@@ -7661,7 +7660,7 @@
         <v>419</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>374</v>
@@ -7670,7 +7669,7 @@
         <v>375</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q144" s="2" t="s">
         <v>420</v>
@@ -7693,7 +7692,7 @@
         <v>419</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>374</v>
@@ -7702,7 +7701,7 @@
         <v>375</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q145" s="2" t="s">
         <v>420</v>
@@ -7716,7 +7715,7 @@
         <v>421</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>374</v>
@@ -7725,10 +7724,10 @@
         <v>427</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>374</v>
@@ -7737,7 +7736,7 @@
         <v>375</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q146" s="2" t="s">
         <v>420</v>
@@ -7745,13 +7744,13 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>421</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>374</v>
@@ -7763,7 +7762,7 @@
         <v>385</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>374</v>
@@ -7772,7 +7771,7 @@
         <v>375</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,12 +7803,12 @@
         <v>375</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>421</v>
@@ -7821,10 +7820,10 @@
         <v>375</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>375</v>
@@ -7833,7 +7832,7 @@
         <v>374</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q149" s="2" t="s">
         <v>420</v>
@@ -7841,13 +7840,13 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>421</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>374</v>
@@ -7859,7 +7858,7 @@
         <v>436</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>374</v>
@@ -7868,18 +7867,18 @@
         <v>375</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>421</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>374</v>
@@ -7888,10 +7887,10 @@
         <v>427</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>374</v>
@@ -7900,18 +7899,18 @@
         <v>375</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>421</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>374</v>
@@ -7920,10 +7919,10 @@
         <v>427</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>374</v>
@@ -7932,18 +7931,18 @@
         <v>375</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>421</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>374</v>
@@ -7952,10 +7951,10 @@
         <v>427</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>374</v>
@@ -7964,12 +7963,12 @@
         <v>375</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>421</v>
@@ -7984,7 +7983,7 @@
         <v>427</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>374</v>
@@ -7993,24 +7992,24 @@
         <v>375</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>374</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>374</v>
@@ -8019,7 +8018,7 @@
         <v>375</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\Utrecht\Projects\CLARIAH CORE\WP3\VKL\tarspdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\myprograms\python\sastadev\sastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4362CAEF-A560-4C5A-B25C-549243955671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D80373-D9D1-4F08-8D3D-49DD3D9192F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="720" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="588">
   <si>
     <t>Item</t>
   </si>
@@ -1787,9 +1787,6 @@
       ]</t>
   </si>
   <si>
-    <t>//node[%Tarsp_OndWB%]</t>
-  </si>
-  <si>
     <t>//node[%Tarsp_OndWVC%]</t>
   </si>
   <si>
@@ -1885,6 +1882,21 @@
   </si>
   <si>
     <t>ov_fase5,ovme5</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_OndB%]</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_OndVC%]</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_OndW%]</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_OndBVC%]</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_OndWB%]</t>
   </si>
 </sst>
 </file>
@@ -2305,11 +2317,11 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G59" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2794,7 +2806,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>374</v>
@@ -3185,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>374</v>
@@ -3743,7 +3755,7 @@
         <v>385</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>374</v>
@@ -4123,7 +4135,7 @@
         <v>375</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>375</v>
@@ -4484,6 +4496,9 @@
       <c r="J58" s="2">
         <v>2</v>
       </c>
+      <c r="K58" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="L58" s="2" t="s">
         <v>374</v>
       </c>
@@ -4522,6 +4537,9 @@
       <c r="J59" s="2">
         <v>3</v>
       </c>
+      <c r="K59" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="L59" s="2" t="s">
         <v>374</v>
       </c>
@@ -4747,6 +4765,9 @@
       <c r="J65" s="2">
         <v>2</v>
       </c>
+      <c r="K65" s="2" t="s">
+        <v>584</v>
+      </c>
       <c r="L65" s="2" t="s">
         <v>374</v>
       </c>
@@ -4785,6 +4806,9 @@
       <c r="J66" s="2">
         <v>2</v>
       </c>
+      <c r="K66" s="2" t="s">
+        <v>585</v>
+      </c>
       <c r="L66" s="2" t="s">
         <v>374</v>
       </c>
@@ -4824,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>374</v>
@@ -4947,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>374</v>
@@ -4988,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>374</v>
@@ -5017,7 +5041,7 @@
         <v>430</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>374</v>
@@ -5055,7 +5079,7 @@
         <v>197</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>374</v>
@@ -5067,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>374</v>
@@ -5204,7 +5228,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>374</v>
@@ -5216,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>374</v>
@@ -5245,7 +5269,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>374</v>
@@ -5257,7 +5281,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>374</v>
@@ -5368,7 +5392,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>374</v>
@@ -5604,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>374</v>
@@ -5779,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>374</v>
@@ -5861,7 +5885,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>374</v>
@@ -6258,7 +6282,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>374</v>
@@ -6299,7 +6323,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>374</v>
@@ -6340,7 +6364,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>374</v>
@@ -6593,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>374</v>
@@ -6766,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>374</v>
@@ -6912,7 +6936,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>374</v>
@@ -6953,7 +6977,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>374</v>
@@ -6997,7 +7021,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>374</v>
@@ -7140,7 +7164,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>374</v>
@@ -7181,7 +7205,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>374</v>
@@ -7225,7 +7249,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>374</v>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\myprograms\python\sastadev\sastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D80373-D9D1-4F08-8D3D-49DD3D9192F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A9F9A4-36A5-48CF-A8D5-EA44B14DA166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="589">
   <si>
     <t>Item</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>//node[@pt="vg" and @lemma="en" ]</t>
-  </si>
-  <si>
-    <t>//node[@pt="bw" and @special="er"]</t>
   </si>
   <si>
     <t>//node[@pt="ww" and @pvagr="mv" and @pvtijd="tgw" ]</t>
@@ -1747,17 +1744,6 @@
     <t>//node[@cat="np" and
     node[@pdtype="det" and @rel="det" and @positie="prenom"  and @vwtype="bez" and @pt="vnw" ] and
     node[(@pt="n"  or (@pt="adj" and @positie="nom")) and @rel="hd"]]</t>
-  </si>
-  <si>
-    <t>//node[@cat="top" and not(.//node[%pv%]) and not(.//node[@lemma="niet"]) and not(.//node[@rel="dlink"]) and
-       (
-       (count(.//node[@cat="du" and count(node[%realnode%])=2  and node[%singlewordbw%] and node[(@pt or %corephrase%) ]])=1 ) or
-	   (node[%bxnp1%]) or
-	   (node[@cat="du" and count(node[%realnode%])=1 and node[%bxnp1%]]) or
-	   (node[%bxnp2%]) or
-	   (node[@cat="du" and count(node[%realnode%])=1 and node[%bxnp2%]])
-       )
-	  ]</t>
   </si>
   <si>
     <t>//node[(((@cat="sv1" and not(parent::node[@cat="whq"])) or
@@ -1897,6 +1883,23 @@
   </si>
   <si>
     <t>//node[%Tarsp_OndWB%]</t>
+  </si>
+  <si>
+    <t>//node[%Vobij%]</t>
+  </si>
+  <si>
+    <t>//node[(@cat="top" and not(.//node[%pv%]) and not(.//node[@lemma="niet"]) and not(.//node[@rel="dlink"]) and
+       (
+       (count(.//node[@cat="du" and count(node[%realnode%])=2  and node[%singlewordbw%] and node[(@pt or %corephrase%) ]])=1 ) or
+	   (node[%bxnp1%]) or
+	   (node[@cat="du" and count(node[%realnode%])=1 and node[%bxnp1%]]) or
+	   (node[%bxnp2%]) or
+	   (node[@cat="du" and count(node[%realnode%])=1 and node[%bxnp2%]])
+       )) or %Tarsp_bnonfin%
+	  ]</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_VzN%]</t>
   </si>
 </sst>
 </file>
@@ -2317,11 +2320,11 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G112" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomRight" activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2343,7 +2346,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2352,19 +2355,19 @@
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2376,19 +2379,19 @@
         <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>160</v>
@@ -2396,7 +2399,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -2405,16 +2408,16 @@
         <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I2" s="2">
         <v>60</v>
@@ -2423,21 +2426,21 @@
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -2446,13 +2449,13 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I3" s="2">
         <v>56</v>
@@ -2461,24 +2464,24 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -2487,16 +2490,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>66</v>
@@ -2505,30 +2508,30 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>124</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I5" s="2">
         <v>77</v>
@@ -2537,36 +2540,36 @@
         <v>6</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I6" s="2">
         <v>79</v>
@@ -2575,39 +2578,39 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I7" s="2">
         <v>42</v>
@@ -2616,21 +2619,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>85</v>
@@ -2639,13 +2642,13 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I8" s="2">
         <v>70</v>
@@ -2654,21 +2657,21 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -2677,13 +2680,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I9" s="2">
         <v>57</v>
@@ -2692,36 +2695,36 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I10" s="2">
         <v>67</v>
@@ -2730,21 +2733,21 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>85</v>
@@ -2753,13 +2756,13 @@
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I11" s="2">
         <v>70</v>
@@ -2768,18 +2771,18 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -2788,16 +2791,16 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -2806,33 +2809,33 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I13" s="2">
         <v>71</v>
@@ -2841,21 +2844,21 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>85</v>
@@ -2864,13 +2867,13 @@
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
@@ -2879,33 +2882,33 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I15" s="2">
         <v>68</v>
@@ -2914,62 +2917,62 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>119</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I17" s="2">
         <v>75</v>
@@ -2978,18 +2981,18 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -2998,16 +3001,16 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>52</v>
@@ -3016,36 +3019,36 @@
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I19" s="2">
         <v>40</v>
@@ -3054,33 +3057,33 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>156</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>158</v>
@@ -3089,30 +3092,30 @@
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I21" s="2">
         <v>69</v>
@@ -3121,33 +3124,33 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I22" s="2">
         <v>66</v>
@@ -3156,21 +3159,21 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -3179,16 +3182,16 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I23" s="2">
         <v>53</v>
@@ -3197,21 +3200,21 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -3220,10 +3223,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
@@ -3232,7 +3235,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>29</v>
@@ -3241,36 +3244,36 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>20</v>
@@ -3279,30 +3282,30 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I26" s="2">
         <v>66</v>
@@ -3311,36 +3314,36 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I27" s="2">
         <v>68</v>
@@ -3349,33 +3352,33 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I28" s="2">
         <v>71</v>
@@ -3384,33 +3387,33 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I29" s="2">
         <v>64</v>
@@ -3419,36 +3422,36 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I30" s="2">
         <v>77</v>
@@ -3460,33 +3463,33 @@
         <v>173</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>138</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I31" s="2">
         <v>81</v>
@@ -3495,36 +3498,36 @@
         <v>6</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I32" s="2">
         <v>72</v>
@@ -3533,21 +3536,21 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -3556,16 +3559,16 @@
         <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>71</v>
@@ -3577,30 +3580,30 @@
         <v>164</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I34" s="2">
         <v>82</v>
@@ -3609,33 +3612,33 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I35" s="2">
         <v>80</v>
@@ -3644,33 +3647,33 @@
         <v>4</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I36" s="2">
         <v>71</v>
@@ -3679,33 +3682,33 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I37" s="2">
         <v>80</v>
@@ -3714,80 +3717,80 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I38" s="2">
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I39" s="2">
         <v>69</v>
@@ -3796,27 +3799,27 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>147</v>
@@ -3825,7 +3828,7 @@
         <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>148</v>
@@ -3834,36 +3837,36 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I41" s="2">
         <v>79</v>
@@ -3875,18 +3878,18 @@
         <v>169</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
@@ -3895,16 +3898,16 @@
         <v>68</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I42" s="2">
         <v>59</v>
@@ -3913,13 +3916,13 @@
         <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>163</v>
@@ -3927,7 +3930,7 @@
     </row>
     <row r="43" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
@@ -3936,16 +3939,16 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -3954,36 +3957,36 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I44" s="2">
         <v>79</v>
@@ -3992,33 +3995,33 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>139</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I45" s="2">
         <v>82</v>
@@ -4027,21 +4030,21 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>21</v>
@@ -4050,19 +4053,19 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>31</v>
@@ -4071,33 +4074,33 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>123</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I47" s="2">
         <v>77</v>
@@ -4106,53 +4109,53 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>21</v>
@@ -4161,13 +4164,13 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>24</v>
@@ -4176,30 +4179,30 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I50" s="2">
         <v>81</v>
@@ -4208,33 +4211,33 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>154</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -4243,36 +4246,36 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>146</v>
@@ -4284,30 +4287,30 @@
         <v>170</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I53" s="2">
         <v>73</v>
@@ -4316,21 +4319,21 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
@@ -4339,13 +4342,13 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I54" s="2">
         <v>56</v>
@@ -4354,21 +4357,21 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>21</v>
@@ -4377,13 +4380,13 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I55" s="2">
         <v>54</v>
@@ -4392,30 +4395,30 @@
         <v>6</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I56" s="2">
         <v>74</v>
@@ -4424,30 +4427,30 @@
         <v>7</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I57" s="2">
         <v>41</v>
@@ -4456,21 +4459,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
@@ -4479,16 +4482,16 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I58" s="2">
         <v>45</v>
@@ -4497,21 +4500,21 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>21</v>
@@ -4520,16 +4523,16 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I59" s="2">
         <v>51</v>
@@ -4538,21 +4541,21 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
@@ -4561,16 +4564,16 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I60" s="2">
         <v>58</v>
@@ -4579,18 +4582,18 @@
         <v>7</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
@@ -4599,13 +4602,13 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>59</v>
@@ -4614,21 +4617,21 @@
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
@@ -4637,13 +4640,13 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I62" s="2">
         <v>55</v>
@@ -4652,21 +4655,21 @@
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>21</v>
@@ -4675,13 +4678,13 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>55</v>
@@ -4690,33 +4693,33 @@
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I64" s="2">
         <v>75</v>
@@ -4725,21 +4728,21 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>21</v>
@@ -4748,16 +4751,16 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I65" s="2">
         <v>46</v>
@@ -4766,21 +4769,21 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>21</v>
@@ -4789,16 +4792,16 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I66" s="2">
         <v>46</v>
@@ -4807,21 +4810,21 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>21</v>
@@ -4830,16 +4833,16 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I67" s="2">
         <v>49</v>
@@ -4848,21 +4851,21 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>21</v>
@@ -4871,16 +4874,16 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I68" s="2">
         <v>52</v>
@@ -4889,21 +4892,21 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>21</v>
@@ -4912,16 +4915,16 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I69" s="2">
         <v>52</v>
@@ -4930,21 +4933,21 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>21</v>
@@ -4953,16 +4956,16 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I70" s="2">
         <v>48</v>
@@ -4971,21 +4974,21 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>21</v>
@@ -4994,16 +4997,16 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I71" s="2">
         <v>53</v>
@@ -5012,21 +5015,21 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>21</v>
@@ -5035,16 +5038,16 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I72" s="2">
         <v>48</v>
@@ -5053,18 +5056,18 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
@@ -5073,16 +5076,16 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I73" s="2">
         <v>51</v>
@@ -5091,21 +5094,21 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
@@ -5114,16 +5117,16 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I74" s="2">
         <v>58</v>
@@ -5132,30 +5135,30 @@
         <v>7</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -5164,33 +5167,33 @@
         <v>7</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I76" s="2">
         <v>78</v>
@@ -5199,21 +5202,21 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>21</v>
@@ -5222,16 +5225,16 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I77" s="2">
         <v>52</v>
@@ -5240,21 +5243,21 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>21</v>
@@ -5263,16 +5266,16 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I78" s="2">
         <v>53</v>
@@ -5281,36 +5284,36 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I79" s="2">
         <v>82</v>
@@ -5319,33 +5322,33 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>153</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I80" s="2">
         <v>86</v>
@@ -5354,16 +5357,16 @@
         <v>4</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>168</v>
@@ -5371,19 +5374,19 @@
     </row>
     <row r="81" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5392,36 +5395,36 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I82" s="2">
         <v>86</v>
@@ -5430,47 +5433,47 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="L83" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>21</v>
@@ -5479,13 +5482,13 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>64</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I84" s="2">
         <v>57</v>
@@ -5494,33 +5497,33 @@
         <v>7</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I85" s="2">
         <v>42</v>
@@ -5529,30 +5532,30 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>17</v>
@@ -5561,30 +5564,30 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I87" s="2">
         <v>43</v>
@@ -5593,33 +5596,33 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I88" s="2">
         <v>37</v>
@@ -5628,33 +5631,33 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3</v>
@@ -5663,36 +5666,36 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>4</v>
@@ -5701,82 +5704,82 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>162</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>21</v>
@@ -5785,16 +5788,16 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>63</v>
@@ -5803,21 +5806,21 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>21</v>
@@ -5826,16 +5829,16 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I94" s="2">
         <v>46</v>
@@ -5844,13 +5847,13 @@
         <v>2</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>161</v>
@@ -5858,7 +5861,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>21</v>
@@ -5867,16 +5870,16 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I95" s="2">
         <v>52</v>
@@ -5885,33 +5888,33 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I96" s="2">
         <v>75</v>
@@ -5920,65 +5923,65 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I98" s="2">
         <v>88</v>
@@ -5987,33 +5990,33 @@
         <v>7</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I99" s="2">
         <v>83</v>
@@ -6025,36 +6028,36 @@
         <v>167</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I100" s="2">
         <v>87</v>
@@ -6063,33 +6066,33 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I101" s="2">
         <v>71</v>
@@ -6098,33 +6101,33 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I102" s="2">
         <v>80</v>
@@ -6133,36 +6136,36 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>174</v>
+        <v>586</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>150</v>
@@ -6174,33 +6177,33 @@
         <v>171</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I104" s="2">
         <v>88</v>
@@ -6209,16 +6212,16 @@
         <v>7</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>172</v>
@@ -6226,36 +6229,36 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>166</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K105" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q105" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
@@ -6264,16 +6267,16 @@
         <v>68</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I106" s="2">
         <v>60</v>
@@ -6282,16 +6285,16 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>165</v>
@@ -6299,7 +6302,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>21</v>
@@ -6308,13 +6311,13 @@
         <v>68</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I107" s="2">
         <v>61</v>
@@ -6323,24 +6326,24 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>21</v>
@@ -6349,13 +6352,13 @@
         <v>68</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>79</v>
@@ -6364,19 +6367,19 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>165</v>
@@ -6384,19 +6387,19 @@
     </row>
     <row r="109" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>109</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I109" s="2">
         <v>72</v>
@@ -6405,33 +6408,33 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I110" s="2">
         <v>74</v>
@@ -6441,30 +6444,30 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>92</v>
@@ -6473,34 +6476,34 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I112" s="2">
         <v>65</v>
@@ -6509,24 +6512,24 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>87</v>
+        <v>588</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>85</v>
@@ -6535,13 +6538,13 @@
         <v>32</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I113" s="2">
         <v>70</v>
@@ -6550,30 +6553,30 @@
         <v>4</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>9</v>
@@ -6582,33 +6585,33 @@
         <v>1</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>13</v>
@@ -6617,24 +6620,24 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>21</v>
@@ -6643,13 +6646,13 @@
         <v>80</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I116" s="2">
         <v>62</v>
@@ -6658,86 +6661,86 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>126</v>
@@ -6746,24 +6749,24 @@
         <v>6</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>21</v>
@@ -6772,16 +6775,16 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I120" s="2">
         <v>51</v>
@@ -6790,33 +6793,33 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I121" s="2">
         <v>68</v>
@@ -6825,33 +6828,33 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I122" s="2">
         <v>75</v>
@@ -6860,33 +6863,33 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>136</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I123" s="2">
         <v>81</v>
@@ -6895,21 +6898,21 @@
         <v>5</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>21</v>
@@ -6918,16 +6921,16 @@
         <v>68</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I124" s="2">
         <v>60</v>
@@ -6936,21 +6939,21 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>21</v>
@@ -6959,16 +6962,16 @@
         <v>68</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -6977,24 +6980,24 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>21</v>
@@ -7003,16 +7006,16 @@
         <v>68</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I126" s="2">
         <v>61</v>
@@ -7021,68 +7024,68 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q127" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q127" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>111</v>
@@ -7091,33 +7094,33 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I129" s="2">
         <v>73</v>
@@ -7126,18 +7129,18 @@
         <v>6</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>21</v>
@@ -7146,7 +7149,7 @@
         <v>80</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>82</v>
@@ -7155,7 +7158,7 @@
         <v>8</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I130" s="2">
         <v>63</v>
@@ -7164,21 +7167,21 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>21</v>
@@ -7187,7 +7190,7 @@
         <v>80</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>83</v>
@@ -7196,7 +7199,7 @@
         <v>8</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I131" s="2">
         <v>63</v>
@@ -7205,21 +7208,21 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>21</v>
@@ -7228,19 +7231,19 @@
         <v>80</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I132" s="2">
         <v>63</v>
@@ -7249,40 +7252,40 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I133" s="2">
         <v>72</v>
@@ -7291,21 +7294,21 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>21</v>
@@ -7314,17 +7317,17 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>36</v>
@@ -7333,18 +7336,18 @@
         <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>21</v>
@@ -7353,17 +7356,17 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>39</v>
@@ -7372,21 +7375,21 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>21</v>
@@ -7395,16 +7398,16 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I136" s="2">
         <v>51</v>
@@ -7413,30 +7416,30 @@
         <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>134</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>135</v>
@@ -7445,21 +7448,21 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>127</v>
@@ -7468,42 +7471,42 @@
         <v>32</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I139" s="2">
         <v>82</v>
@@ -7512,33 +7515,33 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I140" s="2">
         <v>40</v>
@@ -7547,33 +7550,33 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I141" s="2">
         <v>69</v>
@@ -7582,467 +7585,467 @@
         <v>4</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q142" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q142" s="12" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="H143" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I144" s="2" t="s">
+      <c r="K144" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q144" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q145" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q145" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="H147" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="H148" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H148" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="L148" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="I149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="L149" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\myprograms\python\sastadev\sastadev\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\myprograms\python\sastacode\sastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A9F9A4-36A5-48CF-A8D5-EA44B14DA166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9027AA-6B52-4A20-985E-FEEBAF64ECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="591">
   <si>
     <t>Item</t>
   </si>
@@ -696,9 +696,6 @@
   </si>
   <si>
     <t>+ hè</t>
-  </si>
-  <si>
-    <t>vn ov</t>
   </si>
   <si>
     <t>bbijzin</t>
@@ -1900,6 +1897,15 @@
   </si>
   <si>
     <t>//node[%Tarsp_VzN%]</t>
+  </si>
+  <si>
+    <t>(Vr)WOnd+</t>
+  </si>
+  <si>
+    <t>OvWG4</t>
+  </si>
+  <si>
+    <t>vn ov,ovvw6</t>
   </si>
 </sst>
 </file>
@@ -2320,11 +2326,11 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K112" sqref="K112"/>
+      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2364,10 +2370,10 @@
         <v>211</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2379,19 +2385,19 @@
         <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>160</v>
@@ -2399,7 +2405,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -2411,13 +2417,16 @@
         <v>201</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I2" s="2">
         <v>60</v>
@@ -2426,21 +2435,21 @@
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -2449,13 +2458,13 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I3" s="2">
         <v>56</v>
@@ -2464,24 +2473,24 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -2493,13 +2502,13 @@
         <v>201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>66</v>
@@ -2508,18 +2517,18 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>121</v>
@@ -2531,7 +2540,7 @@
         <v>124</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I5" s="2">
         <v>77</v>
@@ -2543,13 +2552,13 @@
         <v>178</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>193</v>
@@ -2557,7 +2566,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>127</v>
@@ -2569,7 +2578,7 @@
         <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I6" s="2">
         <v>79</v>
@@ -2578,27 +2587,27 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -2610,7 +2619,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I7" s="2">
         <v>42</v>
@@ -2619,21 +2628,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>85</v>
@@ -2648,7 +2657,7 @@
         <v>102</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I8" s="2">
         <v>70</v>
@@ -2657,21 +2666,21 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -2680,13 +2689,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I9" s="2">
         <v>57</v>
@@ -2695,24 +2704,24 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>85</v>
@@ -2724,7 +2733,7 @@
         <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I10" s="2">
         <v>67</v>
@@ -2733,21 +2742,21 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>85</v>
@@ -2762,7 +2771,7 @@
         <v>101</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I11" s="2">
         <v>70</v>
@@ -2771,18 +2780,18 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -2797,10 +2806,10 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -2809,21 +2818,21 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
@@ -2835,7 +2844,7 @@
         <v>103</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I13" s="2">
         <v>71</v>
@@ -2847,18 +2856,18 @@
         <v>208</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>85</v>
@@ -2873,7 +2882,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
@@ -2882,21 +2891,21 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>85</v>
@@ -2908,7 +2917,7 @@
         <v>96</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I15" s="2">
         <v>68</v>
@@ -2917,21 +2926,21 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>201</v>
@@ -2940,27 +2949,27 @@
         <v>183</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>116</v>
@@ -2972,7 +2981,7 @@
         <v>119</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="2">
         <v>75</v>
@@ -2981,18 +2990,18 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -3004,13 +3013,13 @@
         <v>201</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>52</v>
@@ -3019,21 +3028,21 @@
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -3042,13 +3051,13 @@
         <v>201</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I19" s="2">
         <v>40</v>
@@ -3057,21 +3066,21 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>143</v>
@@ -3083,7 +3092,7 @@
         <v>156</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>158</v>
@@ -3092,18 +3101,18 @@
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>85</v>
@@ -3115,7 +3124,7 @@
         <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I21" s="2">
         <v>69</v>
@@ -3124,21 +3133,21 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
@@ -3150,7 +3159,7 @@
         <v>89</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I22" s="2">
         <v>66</v>
@@ -3159,21 +3168,21 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -3188,10 +3197,10 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I23" s="2">
         <v>53</v>
@@ -3200,21 +3209,21 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -3226,7 +3235,7 @@
         <v>201</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
@@ -3235,7 +3244,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>29</v>
@@ -3244,24 +3253,24 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -3273,7 +3282,7 @@
         <v>19</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>20</v>
@@ -3282,18 +3291,18 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
@@ -3305,7 +3314,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I26" s="2">
         <v>66</v>
@@ -3314,24 +3323,24 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
@@ -3343,7 +3352,7 @@
         <v>94</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I27" s="2">
         <v>68</v>
@@ -3352,21 +3361,21 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
@@ -3378,7 +3387,7 @@
         <v>106</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I28" s="2">
         <v>71</v>
@@ -3387,21 +3396,21 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
@@ -3413,7 +3422,7 @@
         <v>86</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I29" s="2">
         <v>64</v>
@@ -3422,24 +3431,24 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>121</v>
@@ -3451,7 +3460,7 @@
         <v>122</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I30" s="2">
         <v>77</v>
@@ -3463,13 +3472,13 @@
         <v>173</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>193</v>
@@ -3477,7 +3486,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>127</v>
@@ -3489,7 +3498,7 @@
         <v>138</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I31" s="2">
         <v>81</v>
@@ -3501,18 +3510,18 @@
         <v>180</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
@@ -3524,10 +3533,10 @@
         <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I32" s="2">
         <v>72</v>
@@ -3536,21 +3545,21 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -3568,7 +3577,7 @@
         <v>215</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>71</v>
@@ -3580,18 +3589,18 @@
         <v>164</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>127</v>
@@ -3603,7 +3612,7 @@
         <v>140</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I34" s="2">
         <v>82</v>
@@ -3615,18 +3624,18 @@
         <v>179</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>127</v>
@@ -3638,7 +3647,7 @@
         <v>133</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I35" s="2">
         <v>80</v>
@@ -3650,18 +3659,18 @@
         <v>207</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -3673,7 +3682,7 @@
         <v>105</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I36" s="2">
         <v>71</v>
@@ -3682,21 +3691,21 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>127</v>
@@ -3708,7 +3717,7 @@
         <v>131</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I37" s="2">
         <v>80</v>
@@ -3717,21 +3726,21 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
@@ -3743,36 +3752,36 @@
         <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I38" s="2">
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
@@ -3784,13 +3793,13 @@
         <v>97</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I39" s="2">
         <v>69</v>
@@ -3799,21 +3808,21 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>143</v>
@@ -3828,7 +3837,7 @@
         <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>148</v>
@@ -3837,24 +3846,24 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>127</v>
@@ -3866,7 +3875,7 @@
         <v>129</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I41" s="2">
         <v>79</v>
@@ -3878,18 +3887,18 @@
         <v>169</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
@@ -3904,10 +3913,10 @@
         <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I42" s="2">
         <v>59</v>
@@ -3916,13 +3925,13 @@
         <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>163</v>
@@ -3930,7 +3939,7 @@
     </row>
     <row r="43" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
@@ -3942,13 +3951,13 @@
         <v>201</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -3957,24 +3966,24 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>127</v>
@@ -3986,7 +3995,7 @@
         <v>130</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I44" s="2">
         <v>79</v>
@@ -3995,21 +4004,21 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>127</v>
@@ -4021,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I45" s="2">
         <v>82</v>
@@ -4030,21 +4039,21 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>21</v>
@@ -4065,7 +4074,7 @@
         <v>8</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>31</v>
@@ -4074,21 +4083,21 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>121</v>
@@ -4100,7 +4109,7 @@
         <v>123</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I47" s="2">
         <v>77</v>
@@ -4109,16 +4118,16 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>193</v>
@@ -4126,7 +4135,7 @@
     </row>
     <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>201</v>
@@ -4135,19 +4144,19 @@
         <v>209</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>188</v>
@@ -4155,7 +4164,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>21</v>
@@ -4170,7 +4179,7 @@
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>24</v>
@@ -4179,18 +4188,18 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>127</v>
@@ -4202,7 +4211,7 @@
         <v>137</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I50" s="2">
         <v>81</v>
@@ -4211,21 +4220,21 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>143</v>
@@ -4237,7 +4246,7 @@
         <v>154</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -4249,18 +4258,18 @@
         <v>174</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>143</v>
@@ -4275,7 +4284,7 @@
         <v>213</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>146</v>
@@ -4287,18 +4296,18 @@
         <v>170</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>85</v>
@@ -4310,7 +4319,7 @@
         <v>112</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I53" s="2">
         <v>73</v>
@@ -4319,21 +4328,21 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
@@ -4342,13 +4351,13 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I54" s="2">
         <v>56</v>
@@ -4357,21 +4366,21 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>21</v>
@@ -4386,7 +4395,7 @@
         <v>53</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I55" s="2">
         <v>54</v>
@@ -4395,18 +4404,18 @@
         <v>6</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>85</v>
@@ -4418,7 +4427,7 @@
         <v>115</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I56" s="2">
         <v>74</v>
@@ -4427,18 +4436,18 @@
         <v>7</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -4450,7 +4459,7 @@
         <v>12</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I57" s="2">
         <v>41</v>
@@ -4459,21 +4468,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
@@ -4488,10 +4497,10 @@
         <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I58" s="2">
         <v>45</v>
@@ -4500,21 +4509,21 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>21</v>
@@ -4529,10 +4538,10 @@
         <v>41</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I59" s="2">
         <v>51</v>
@@ -4541,21 +4550,21 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
@@ -4567,13 +4576,13 @@
         <v>201</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I60" s="2">
         <v>58</v>
@@ -4582,18 +4591,18 @@
         <v>7</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
@@ -4608,7 +4617,7 @@
         <v>57</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>59</v>
@@ -4617,21 +4626,21 @@
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
@@ -4646,7 +4655,7 @@
         <v>56</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I62" s="2">
         <v>55</v>
@@ -4655,21 +4664,21 @@
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>21</v>
@@ -4684,7 +4693,7 @@
         <v>54</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>55</v>
@@ -4693,21 +4702,21 @@
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
@@ -4719,7 +4728,7 @@
         <v>120</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I64" s="2">
         <v>75</v>
@@ -4728,21 +4737,21 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>21</v>
@@ -4757,10 +4766,10 @@
         <v>25</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I65" s="2">
         <v>46</v>
@@ -4769,21 +4778,21 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>21</v>
@@ -4798,10 +4807,10 @@
         <v>27</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I66" s="2">
         <v>46</v>
@@ -4810,21 +4819,21 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>21</v>
@@ -4839,10 +4848,10 @@
         <v>37</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I67" s="2">
         <v>49</v>
@@ -4851,21 +4860,21 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>21</v>
@@ -4880,10 +4889,10 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I68" s="2">
         <v>52</v>
@@ -4892,21 +4901,21 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>21</v>
@@ -4921,10 +4930,10 @@
         <v>45</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I69" s="2">
         <v>52</v>
@@ -4933,21 +4942,21 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>21</v>
@@ -4962,10 +4971,10 @@
         <v>34</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I70" s="2">
         <v>48</v>
@@ -4974,21 +4983,21 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>21</v>
@@ -5003,10 +5012,10 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I71" s="2">
         <v>53</v>
@@ -5015,21 +5024,21 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>21</v>
@@ -5041,13 +5050,13 @@
         <v>201</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I72" s="2">
         <v>48</v>
@@ -5056,18 +5065,18 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
@@ -5082,10 +5091,10 @@
         <v>196</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I73" s="2">
         <v>51</v>
@@ -5094,21 +5103,21 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
@@ -5123,10 +5132,10 @@
         <v>197</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I74" s="2">
         <v>58</v>
@@ -5135,18 +5144,18 @@
         <v>7</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>85</v>
@@ -5158,7 +5167,7 @@
         <v>198</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -5167,18 +5176,18 @@
         <v>7</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>121</v>
@@ -5190,10 +5199,10 @@
         <v>199</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I76" s="2">
         <v>78</v>
@@ -5202,13 +5211,13 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>194</v>
@@ -5216,7 +5225,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>21</v>
@@ -5231,10 +5240,10 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I77" s="2">
         <v>52</v>
@@ -5243,21 +5252,21 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>21</v>
@@ -5272,10 +5281,10 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I78" s="2">
         <v>53</v>
@@ -5284,21 +5293,21 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>127</v>
@@ -5310,10 +5319,10 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>216</v>
+        <v>590</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I79" s="2">
         <v>82</v>
@@ -5322,21 +5331,21 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>143</v>
@@ -5348,7 +5357,7 @@
         <v>153</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I80" s="2">
         <v>86</v>
@@ -5360,13 +5369,13 @@
         <v>210</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>168</v>
@@ -5374,7 +5383,7 @@
     </row>
     <row r="81" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>143</v>
@@ -5386,7 +5395,7 @@
         <v>151</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5395,21 +5404,21 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>143</v>
@@ -5421,10 +5430,10 @@
         <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I82" s="2">
         <v>86</v>
@@ -5433,21 +5442,21 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>201</v>
@@ -5456,24 +5465,24 @@
         <v>185</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>21</v>
@@ -5482,13 +5491,13 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>64</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I84" s="2">
         <v>57</v>
@@ -5500,18 +5509,18 @@
         <v>184</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>11</v>
@@ -5523,7 +5532,7 @@
         <v>16</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I85" s="2">
         <v>42</v>
@@ -5532,18 +5541,18 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>11</v>
@@ -5555,7 +5564,7 @@
         <v>15</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>17</v>
@@ -5564,18 +5573,18 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>11</v>
@@ -5587,7 +5596,7 @@
         <v>18</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I87" s="2">
         <v>43</v>
@@ -5596,18 +5605,18 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
@@ -5616,13 +5625,13 @@
         <v>201</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I88" s="2">
         <v>37</v>
@@ -5631,21 +5640,21 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
@@ -5654,10 +5663,10 @@
         <v>201</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3</v>
@@ -5666,21 +5675,21 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
@@ -5689,13 +5698,13 @@
         <v>201</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>4</v>
@@ -5704,18 +5713,18 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
@@ -5724,36 +5733,36 @@
         <v>201</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>201</v>
@@ -5762,24 +5771,24 @@
         <v>162</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>21</v>
@@ -5788,16 +5797,16 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>63</v>
@@ -5806,21 +5815,21 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>21</v>
@@ -5835,10 +5844,10 @@
         <v>26</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I94" s="2">
         <v>46</v>
@@ -5847,13 +5856,13 @@
         <v>2</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>161</v>
@@ -5861,7 +5870,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>21</v>
@@ -5876,10 +5885,10 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I95" s="2">
         <v>52</v>
@@ -5888,21 +5897,21 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>116</v>
@@ -5914,7 +5923,7 @@
         <v>117</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I96" s="2">
         <v>75</v>
@@ -5923,21 +5932,21 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>201</v>
@@ -5946,30 +5955,30 @@
         <v>181</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>143</v>
@@ -5981,7 +5990,7 @@
         <v>157</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I98" s="2">
         <v>88</v>
@@ -5990,18 +5999,18 @@
         <v>7</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>143</v>
@@ -6010,13 +6019,13 @@
         <v>203</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I99" s="2">
         <v>83</v>
@@ -6028,21 +6037,21 @@
         <v>167</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>143</v>
@@ -6054,10 +6063,10 @@
         <v>155</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I100" s="2">
         <v>87</v>
@@ -6066,21 +6075,21 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>85</v>
@@ -6092,7 +6101,7 @@
         <v>104</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I101" s="2">
         <v>71</v>
@@ -6101,21 +6110,21 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>127</v>
@@ -6127,7 +6136,7 @@
         <v>132</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I102" s="2">
         <v>80</v>
@@ -6136,21 +6145,21 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>143</v>
@@ -6162,10 +6171,10 @@
         <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>150</v>
@@ -6177,18 +6186,18 @@
         <v>171</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>143</v>
@@ -6197,13 +6206,13 @@
         <v>203</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I104" s="2">
         <v>88</v>
@@ -6212,16 +6221,16 @@
         <v>7</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>172</v>
@@ -6229,7 +6238,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>201</v>
@@ -6238,27 +6247,27 @@
         <v>166</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K105" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q105" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
@@ -6273,10 +6282,10 @@
         <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I106" s="2">
         <v>60</v>
@@ -6285,16 +6294,16 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>165</v>
@@ -6302,7 +6311,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>21</v>
@@ -6317,7 +6326,7 @@
         <v>76</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I107" s="2">
         <v>61</v>
@@ -6326,24 +6335,24 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>21</v>
@@ -6358,7 +6367,7 @@
         <v>78</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>79</v>
@@ -6367,19 +6376,19 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>165</v>
@@ -6387,7 +6396,7 @@
     </row>
     <row r="109" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>85</v>
@@ -6399,7 +6408,7 @@
         <v>109</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I109" s="2">
         <v>72</v>
@@ -6408,21 +6417,21 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>85</v>
@@ -6434,7 +6443,7 @@
         <v>114</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I110" s="2">
         <v>74</v>
@@ -6444,18 +6453,18 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>85</v>
@@ -6467,7 +6476,7 @@
         <v>91</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>92</v>
@@ -6476,21 +6485,21 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>85</v>
@@ -6503,7 +6512,7 @@
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I112" s="2">
         <v>65</v>
@@ -6512,24 +6521,24 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>85</v>
@@ -6544,7 +6553,7 @@
         <v>99</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I113" s="2">
         <v>70</v>
@@ -6553,18 +6562,18 @@
         <v>4</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>5</v>
@@ -6573,10 +6582,10 @@
         <v>201</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>9</v>
@@ -6588,18 +6597,18 @@
         <v>204</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>11</v>
@@ -6611,7 +6620,7 @@
         <v>8</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>13</v>
@@ -6620,24 +6629,24 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>21</v>
@@ -6652,7 +6661,7 @@
         <v>81</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I116" s="2">
         <v>62</v>
@@ -6661,49 +6670,49 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>187</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>201</v>
@@ -6714,21 +6723,21 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>121</v>
@@ -6740,7 +6749,7 @@
         <v>125</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>126</v>
@@ -6752,13 +6761,13 @@
         <v>177</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>193</v>
@@ -6766,7 +6775,7 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>21</v>
@@ -6781,10 +6790,10 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I120" s="2">
         <v>51</v>
@@ -6793,21 +6802,21 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>85</v>
@@ -6819,7 +6828,7 @@
         <v>95</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I121" s="2">
         <v>68</v>
@@ -6828,21 +6837,21 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>116</v>
@@ -6854,7 +6863,7 @@
         <v>118</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I122" s="2">
         <v>75</v>
@@ -6863,21 +6872,21 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>127</v>
@@ -6889,7 +6898,7 @@
         <v>136</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I123" s="2">
         <v>81</v>
@@ -6901,18 +6910,18 @@
         <v>175</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>21</v>
@@ -6927,10 +6936,10 @@
         <v>73</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I124" s="2">
         <v>60</v>
@@ -6939,21 +6948,21 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>21</v>
@@ -6968,10 +6977,10 @@
         <v>75</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -6980,24 +6989,24 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>21</v>
@@ -7012,10 +7021,10 @@
         <v>77</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I126" s="2">
         <v>61</v>
@@ -7024,21 +7033,21 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>11</v>
@@ -7050,22 +7059,22 @@
         <v>191</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>190</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>192</v>
@@ -7073,7 +7082,7 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
@@ -7085,7 +7094,7 @@
         <v>110</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>111</v>
@@ -7094,21 +7103,21 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>85</v>
@@ -7120,7 +7129,7 @@
         <v>113</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I129" s="2">
         <v>73</v>
@@ -7129,18 +7138,18 @@
         <v>6</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>21</v>
@@ -7158,7 +7167,7 @@
         <v>8</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I130" s="2">
         <v>63</v>
@@ -7167,21 +7176,21 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>21</v>
@@ -7199,7 +7208,7 @@
         <v>8</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I131" s="2">
         <v>63</v>
@@ -7208,21 +7217,21 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>21</v>
@@ -7237,13 +7246,13 @@
         <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I132" s="2">
         <v>63</v>
@@ -7252,24 +7261,24 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>85</v>
@@ -7281,11 +7290,11 @@
         <v>107</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I133" s="2">
         <v>72</v>
@@ -7294,21 +7303,21 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>21</v>
@@ -7324,10 +7333,10 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>36</v>
@@ -7336,18 +7345,18 @@
         <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>21</v>
@@ -7366,7 +7375,7 @@
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>39</v>
@@ -7375,21 +7384,21 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>21</v>
@@ -7404,10 +7413,10 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I136" s="2">
         <v>51</v>
@@ -7416,18 +7425,18 @@
         <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>127</v>
@@ -7439,7 +7448,7 @@
         <v>134</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>135</v>
@@ -7448,21 +7457,21 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>127</v>
@@ -7477,24 +7486,24 @@
         <v>176</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>127</v>
@@ -7506,7 +7515,7 @@
         <v>142</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I139" s="2">
         <v>82</v>
@@ -7515,21 +7524,21 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
@@ -7541,7 +7550,7 @@
         <v>6</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I140" s="2">
         <v>40</v>
@@ -7550,21 +7559,21 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>85</v>
@@ -7576,7 +7585,7 @@
         <v>206</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I141" s="2">
         <v>69</v>
@@ -7588,13 +7597,13 @@
         <v>182</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>205</v>
@@ -7602,7 +7611,7 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>85</v>
@@ -7611,441 +7620,444 @@
         <v>202</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q142" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q142" s="12" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="H143" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I144" s="2" t="s">
+      <c r="K144" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q144" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q145" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q145" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="H147" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H148" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="L148" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="L149" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\myprograms\python\sastacode\sastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9027AA-6B52-4A20-985E-FEEBAF64ECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8AEB9A-3DBD-4F10-A244-904A85126CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="592">
   <si>
     <t>Item</t>
   </si>
@@ -714,9 +714,6 @@
   </si>
   <si>
     <t>implies</t>
-  </si>
-  <si>
-    <t>B,W,Ond</t>
   </si>
   <si>
     <t>Ond,B,VC</t>
@@ -1906,6 +1903,12 @@
   </si>
   <si>
     <t>vn ov,ovvw6</t>
+  </si>
+  <si>
+    <t>B,W,Ond, B, B</t>
+  </si>
+  <si>
+    <t>Ond,W,B,B</t>
   </si>
 </sst>
 </file>
@@ -2326,11 +2329,11 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2373,7 +2376,7 @@
         <v>221</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2385,19 +2388,19 @@
         <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>160</v>
@@ -2405,7 +2408,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -2417,16 +2420,16 @@
         <v>201</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I2" s="2">
         <v>60</v>
@@ -2435,21 +2438,21 @@
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -2464,7 +2467,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I3" s="2">
         <v>56</v>
@@ -2473,24 +2476,24 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -2502,13 +2505,13 @@
         <v>201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>66</v>
@@ -2517,18 +2520,18 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>121</v>
@@ -2540,7 +2543,7 @@
         <v>124</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I5" s="2">
         <v>77</v>
@@ -2552,13 +2555,13 @@
         <v>178</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>193</v>
@@ -2566,7 +2569,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>127</v>
@@ -2578,7 +2581,7 @@
         <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I6" s="2">
         <v>79</v>
@@ -2587,27 +2590,27 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -2619,7 +2622,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I7" s="2">
         <v>42</v>
@@ -2628,21 +2631,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>85</v>
@@ -2657,7 +2660,7 @@
         <v>102</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I8" s="2">
         <v>70</v>
@@ -2666,21 +2669,21 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -2695,7 +2698,7 @@
         <v>62</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I9" s="2">
         <v>57</v>
@@ -2704,24 +2707,24 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>85</v>
@@ -2733,7 +2736,7 @@
         <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I10" s="2">
         <v>67</v>
@@ -2742,21 +2745,21 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>85</v>
@@ -2771,7 +2774,7 @@
         <v>101</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I11" s="2">
         <v>70</v>
@@ -2780,18 +2783,18 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -2806,10 +2809,10 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -2818,21 +2821,21 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
@@ -2844,7 +2847,7 @@
         <v>103</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I13" s="2">
         <v>71</v>
@@ -2856,18 +2859,18 @@
         <v>208</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>85</v>
@@ -2882,7 +2885,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
@@ -2891,21 +2894,21 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>85</v>
@@ -2917,7 +2920,7 @@
         <v>96</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I15" s="2">
         <v>68</v>
@@ -2926,21 +2929,21 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>201</v>
@@ -2952,24 +2955,24 @@
         <v>216</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>116</v>
@@ -2981,7 +2984,7 @@
         <v>119</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I17" s="2">
         <v>75</v>
@@ -2990,18 +2993,18 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -3013,13 +3016,13 @@
         <v>201</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>52</v>
@@ -3028,21 +3031,21 @@
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -3051,13 +3054,13 @@
         <v>201</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I19" s="2">
         <v>40</v>
@@ -3066,21 +3069,21 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>143</v>
@@ -3092,7 +3095,7 @@
         <v>156</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>158</v>
@@ -3101,18 +3104,18 @@
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>85</v>
@@ -3124,7 +3127,7 @@
         <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I21" s="2">
         <v>69</v>
@@ -3133,21 +3136,21 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
@@ -3159,7 +3162,7 @@
         <v>89</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I22" s="2">
         <v>66</v>
@@ -3168,21 +3171,21 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -3197,10 +3200,10 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>222</v>
+        <v>590</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I23" s="2">
         <v>53</v>
@@ -3209,21 +3212,21 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -3235,7 +3238,7 @@
         <v>201</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
@@ -3244,7 +3247,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>29</v>
@@ -3253,24 +3256,24 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -3282,7 +3285,7 @@
         <v>19</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>20</v>
@@ -3291,18 +3294,18 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
@@ -3314,7 +3317,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I26" s="2">
         <v>66</v>
@@ -3323,24 +3326,24 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
@@ -3352,7 +3355,7 @@
         <v>94</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I27" s="2">
         <v>68</v>
@@ -3361,21 +3364,21 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
@@ -3387,7 +3390,7 @@
         <v>106</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I28" s="2">
         <v>71</v>
@@ -3396,21 +3399,21 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
@@ -3422,7 +3425,7 @@
         <v>86</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I29" s="2">
         <v>64</v>
@@ -3431,24 +3434,24 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>121</v>
@@ -3460,7 +3463,7 @@
         <v>122</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I30" s="2">
         <v>77</v>
@@ -3472,13 +3475,13 @@
         <v>173</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>193</v>
@@ -3486,7 +3489,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>127</v>
@@ -3498,7 +3501,7 @@
         <v>138</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I31" s="2">
         <v>81</v>
@@ -3510,18 +3513,18 @@
         <v>180</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
@@ -3533,10 +3536,10 @@
         <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I32" s="2">
         <v>72</v>
@@ -3545,21 +3548,21 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -3577,7 +3580,7 @@
         <v>215</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>71</v>
@@ -3589,18 +3592,18 @@
         <v>164</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>127</v>
@@ -3612,7 +3615,7 @@
         <v>140</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I34" s="2">
         <v>82</v>
@@ -3624,18 +3627,18 @@
         <v>179</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>127</v>
@@ -3647,7 +3650,7 @@
         <v>133</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I35" s="2">
         <v>80</v>
@@ -3659,18 +3662,18 @@
         <v>207</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -3682,7 +3685,7 @@
         <v>105</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I36" s="2">
         <v>71</v>
@@ -3691,21 +3694,21 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>127</v>
@@ -3717,7 +3720,7 @@
         <v>131</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I37" s="2">
         <v>80</v>
@@ -3726,21 +3729,21 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
@@ -3754,34 +3757,31 @@
       <c r="F38" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H38" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I38" s="2">
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
@@ -3795,11 +3795,8 @@
       <c r="F39" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H39" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I39" s="2">
         <v>69</v>
@@ -3808,21 +3805,21 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>143</v>
@@ -3833,11 +3830,8 @@
       <c r="E40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H40" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>148</v>
@@ -3846,24 +3840,24 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>127</v>
@@ -3875,7 +3869,7 @@
         <v>129</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I41" s="2">
         <v>79</v>
@@ -3887,18 +3881,18 @@
         <v>169</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
@@ -3913,10 +3907,10 @@
         <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I42" s="2">
         <v>59</v>
@@ -3925,13 +3919,13 @@
         <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>163</v>
@@ -3939,7 +3933,7 @@
     </row>
     <row r="43" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
@@ -3951,13 +3945,13 @@
         <v>201</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -3966,24 +3960,24 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>127</v>
@@ -3995,7 +3989,7 @@
         <v>130</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I44" s="2">
         <v>79</v>
@@ -4004,21 +3998,21 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>127</v>
@@ -4030,7 +4024,7 @@
         <v>139</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I45" s="2">
         <v>82</v>
@@ -4039,21 +4033,21 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>21</v>
@@ -4070,11 +4064,8 @@
       <c r="F46" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H46" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>31</v>
@@ -4083,21 +4074,21 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>121</v>
@@ -4109,7 +4100,7 @@
         <v>123</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I47" s="2">
         <v>77</v>
@@ -4118,16 +4109,16 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>193</v>
@@ -4135,7 +4126,7 @@
     </row>
     <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>201</v>
@@ -4144,19 +4135,19 @@
         <v>209</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>188</v>
@@ -4164,7 +4155,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>21</v>
@@ -4179,7 +4170,7 @@
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>24</v>
@@ -4188,18 +4179,18 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>127</v>
@@ -4211,7 +4202,7 @@
         <v>137</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I50" s="2">
         <v>81</v>
@@ -4220,21 +4211,21 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>143</v>
@@ -4246,7 +4237,7 @@
         <v>154</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -4258,18 +4249,18 @@
         <v>174</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>143</v>
@@ -4284,7 +4275,7 @@
         <v>213</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>146</v>
@@ -4296,18 +4287,18 @@
         <v>170</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>85</v>
@@ -4319,7 +4310,7 @@
         <v>112</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I53" s="2">
         <v>73</v>
@@ -4328,21 +4319,21 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
@@ -4357,7 +4348,7 @@
         <v>58</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I54" s="2">
         <v>56</v>
@@ -4366,21 +4357,21 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>21</v>
@@ -4395,7 +4386,7 @@
         <v>53</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I55" s="2">
         <v>54</v>
@@ -4404,18 +4395,18 @@
         <v>6</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>85</v>
@@ -4427,7 +4418,7 @@
         <v>115</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I56" s="2">
         <v>74</v>
@@ -4436,18 +4427,18 @@
         <v>7</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -4459,7 +4450,7 @@
         <v>12</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I57" s="2">
         <v>41</v>
@@ -4468,21 +4459,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
@@ -4497,10 +4488,10 @@
         <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I58" s="2">
         <v>45</v>
@@ -4509,21 +4500,21 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>21</v>
@@ -4538,10 +4529,10 @@
         <v>41</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I59" s="2">
         <v>51</v>
@@ -4550,21 +4541,21 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
@@ -4576,13 +4567,13 @@
         <v>201</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I60" s="2">
         <v>58</v>
@@ -4591,18 +4582,18 @@
         <v>7</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
@@ -4617,7 +4608,7 @@
         <v>57</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>59</v>
@@ -4626,21 +4617,21 @@
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
@@ -4655,7 +4646,7 @@
         <v>56</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I62" s="2">
         <v>55</v>
@@ -4664,21 +4655,21 @@
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>21</v>
@@ -4693,7 +4684,7 @@
         <v>54</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>55</v>
@@ -4702,21 +4693,21 @@
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
@@ -4728,7 +4719,7 @@
         <v>120</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I64" s="2">
         <v>75</v>
@@ -4737,21 +4728,21 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>21</v>
@@ -4766,10 +4757,10 @@
         <v>25</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I65" s="2">
         <v>46</v>
@@ -4778,21 +4769,21 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>21</v>
@@ -4807,10 +4798,10 @@
         <v>27</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I66" s="2">
         <v>46</v>
@@ -4819,21 +4810,21 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>21</v>
@@ -4848,10 +4839,10 @@
         <v>37</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I67" s="2">
         <v>49</v>
@@ -4860,21 +4851,21 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>21</v>
@@ -4889,10 +4880,10 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>225</v>
+        <v>591</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I68" s="2">
         <v>52</v>
@@ -4901,21 +4892,21 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>21</v>
@@ -4930,10 +4921,10 @@
         <v>45</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I69" s="2">
         <v>52</v>
@@ -4942,21 +4933,21 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>21</v>
@@ -4971,10 +4962,10 @@
         <v>34</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I70" s="2">
         <v>48</v>
@@ -4983,21 +4974,21 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>21</v>
@@ -5012,10 +5003,10 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I71" s="2">
         <v>53</v>
@@ -5024,21 +5015,21 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>21</v>
@@ -5050,13 +5041,13 @@
         <v>201</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I72" s="2">
         <v>48</v>
@@ -5065,18 +5056,18 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
@@ -5091,10 +5082,10 @@
         <v>196</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I73" s="2">
         <v>51</v>
@@ -5103,21 +5094,21 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
@@ -5132,10 +5123,10 @@
         <v>197</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I74" s="2">
         <v>58</v>
@@ -5144,18 +5135,18 @@
         <v>7</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>85</v>
@@ -5167,7 +5158,7 @@
         <v>198</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -5176,18 +5167,18 @@
         <v>7</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>121</v>
@@ -5199,10 +5190,10 @@
         <v>199</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I76" s="2">
         <v>78</v>
@@ -5211,13 +5202,13 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>194</v>
@@ -5225,7 +5216,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>21</v>
@@ -5240,10 +5231,10 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I77" s="2">
         <v>52</v>
@@ -5252,21 +5243,21 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>21</v>
@@ -5281,10 +5272,10 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I78" s="2">
         <v>53</v>
@@ -5293,21 +5284,21 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>127</v>
@@ -5319,10 +5310,10 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I79" s="2">
         <v>82</v>
@@ -5331,21 +5322,21 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>143</v>
@@ -5357,7 +5348,7 @@
         <v>153</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I80" s="2">
         <v>86</v>
@@ -5369,13 +5360,13 @@
         <v>210</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>168</v>
@@ -5383,7 +5374,7 @@
     </row>
     <row r="81" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>143</v>
@@ -5395,7 +5386,7 @@
         <v>151</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5404,21 +5395,21 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>143</v>
@@ -5430,10 +5421,10 @@
         <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I82" s="2">
         <v>86</v>
@@ -5442,21 +5433,21 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>201</v>
@@ -5465,24 +5456,24 @@
         <v>185</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>21</v>
@@ -5497,7 +5488,7 @@
         <v>64</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I84" s="2">
         <v>57</v>
@@ -5509,18 +5500,18 @@
         <v>184</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>11</v>
@@ -5532,7 +5523,7 @@
         <v>16</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I85" s="2">
         <v>42</v>
@@ -5541,18 +5532,18 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>11</v>
@@ -5564,7 +5555,7 @@
         <v>15</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>17</v>
@@ -5573,18 +5564,18 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>11</v>
@@ -5596,7 +5587,7 @@
         <v>18</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I87" s="2">
         <v>43</v>
@@ -5605,18 +5596,18 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
@@ -5625,13 +5616,13 @@
         <v>201</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I88" s="2">
         <v>37</v>
@@ -5640,21 +5631,21 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
@@ -5663,10 +5654,10 @@
         <v>201</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3</v>
@@ -5675,21 +5666,21 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
@@ -5698,13 +5689,13 @@
         <v>201</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>4</v>
@@ -5713,18 +5704,18 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
@@ -5733,36 +5724,36 @@
         <v>201</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>201</v>
@@ -5771,24 +5762,24 @@
         <v>162</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>21</v>
@@ -5803,10 +5794,10 @@
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>63</v>
@@ -5815,21 +5806,21 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>21</v>
@@ -5844,10 +5835,10 @@
         <v>26</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I94" s="2">
         <v>46</v>
@@ -5856,13 +5847,13 @@
         <v>2</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>161</v>
@@ -5870,7 +5861,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>21</v>
@@ -5885,10 +5876,10 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I95" s="2">
         <v>52</v>
@@ -5897,21 +5888,21 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>116</v>
@@ -5923,7 +5914,7 @@
         <v>117</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I96" s="2">
         <v>75</v>
@@ -5932,21 +5923,21 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>201</v>
@@ -5955,30 +5946,30 @@
         <v>181</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>143</v>
@@ -5990,7 +5981,7 @@
         <v>157</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I98" s="2">
         <v>88</v>
@@ -5999,18 +5990,18 @@
         <v>7</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>143</v>
@@ -6019,13 +6010,13 @@
         <v>203</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I99" s="2">
         <v>83</v>
@@ -6037,21 +6028,21 @@
         <v>167</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>143</v>
@@ -6063,10 +6054,10 @@
         <v>155</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I100" s="2">
         <v>87</v>
@@ -6075,21 +6066,21 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>85</v>
@@ -6101,7 +6092,7 @@
         <v>104</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I101" s="2">
         <v>71</v>
@@ -6110,21 +6101,21 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>127</v>
@@ -6136,7 +6127,7 @@
         <v>132</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I102" s="2">
         <v>80</v>
@@ -6145,21 +6136,21 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>143</v>
@@ -6174,7 +6165,7 @@
         <v>218</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>150</v>
@@ -6186,18 +6177,18 @@
         <v>171</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>143</v>
@@ -6206,13 +6197,13 @@
         <v>203</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I104" s="2">
         <v>88</v>
@@ -6221,16 +6212,16 @@
         <v>7</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>172</v>
@@ -6238,7 +6229,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>201</v>
@@ -6247,27 +6238,27 @@
         <v>166</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K105" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q105" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
@@ -6282,10 +6273,10 @@
         <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I106" s="2">
         <v>60</v>
@@ -6294,16 +6285,16 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>165</v>
@@ -6311,7 +6302,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>21</v>
@@ -6326,7 +6317,7 @@
         <v>76</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I107" s="2">
         <v>61</v>
@@ -6335,24 +6326,24 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>21</v>
@@ -6367,7 +6358,7 @@
         <v>78</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>79</v>
@@ -6376,19 +6367,19 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>165</v>
@@ -6396,7 +6387,7 @@
     </row>
     <row r="109" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>85</v>
@@ -6408,7 +6399,7 @@
         <v>109</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I109" s="2">
         <v>72</v>
@@ -6417,21 +6408,21 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>85</v>
@@ -6443,7 +6434,7 @@
         <v>114</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I110" s="2">
         <v>74</v>
@@ -6453,18 +6444,18 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>85</v>
@@ -6476,7 +6467,7 @@
         <v>91</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>92</v>
@@ -6485,21 +6476,21 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>85</v>
@@ -6512,7 +6503,7 @@
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I112" s="2">
         <v>65</v>
@@ -6521,24 +6512,24 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>85</v>
@@ -6553,7 +6544,7 @@
         <v>99</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I113" s="2">
         <v>70</v>
@@ -6562,18 +6553,18 @@
         <v>4</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>5</v>
@@ -6582,10 +6573,10 @@
         <v>201</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>9</v>
@@ -6597,18 +6588,18 @@
         <v>204</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>11</v>
@@ -6620,7 +6611,7 @@
         <v>8</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>13</v>
@@ -6629,24 +6620,24 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>21</v>
@@ -6660,8 +6651,11 @@
       <c r="E116" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="G116" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H116" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I116" s="2">
         <v>62</v>
@@ -6670,49 +6664,49 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>187</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>201</v>
@@ -6723,21 +6717,21 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>121</v>
@@ -6749,7 +6743,7 @@
         <v>125</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>126</v>
@@ -6761,13 +6755,13 @@
         <v>177</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>193</v>
@@ -6775,7 +6769,7 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>21</v>
@@ -6790,10 +6784,10 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I120" s="2">
         <v>51</v>
@@ -6802,21 +6796,21 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>85</v>
@@ -6828,7 +6822,7 @@
         <v>95</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I121" s="2">
         <v>68</v>
@@ -6837,21 +6831,21 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>116</v>
@@ -6863,7 +6857,7 @@
         <v>118</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I122" s="2">
         <v>75</v>
@@ -6872,21 +6866,21 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>127</v>
@@ -6898,7 +6892,7 @@
         <v>136</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I123" s="2">
         <v>81</v>
@@ -6910,18 +6904,18 @@
         <v>175</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>21</v>
@@ -6936,10 +6930,10 @@
         <v>73</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I124" s="2">
         <v>60</v>
@@ -6948,21 +6942,21 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>21</v>
@@ -6977,10 +6971,10 @@
         <v>75</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -6989,24 +6983,24 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>21</v>
@@ -7021,10 +7015,10 @@
         <v>77</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I126" s="2">
         <v>61</v>
@@ -7033,21 +7027,21 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>11</v>
@@ -7059,22 +7053,22 @@
         <v>191</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>190</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>192</v>
@@ -7082,7 +7076,7 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
@@ -7094,7 +7088,7 @@
         <v>110</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>111</v>
@@ -7103,21 +7097,21 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>85</v>
@@ -7129,7 +7123,7 @@
         <v>113</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I129" s="2">
         <v>73</v>
@@ -7138,18 +7132,18 @@
         <v>6</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>21</v>
@@ -7167,7 +7161,7 @@
         <v>8</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I130" s="2">
         <v>63</v>
@@ -7176,21 +7170,21 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>21</v>
@@ -7208,7 +7202,7 @@
         <v>8</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I131" s="2">
         <v>63</v>
@@ -7217,21 +7211,21 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>21</v>
@@ -7246,13 +7240,13 @@
         <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I132" s="2">
         <v>63</v>
@@ -7261,24 +7255,24 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>85</v>
@@ -7290,11 +7284,11 @@
         <v>107</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I133" s="2">
         <v>72</v>
@@ -7303,21 +7297,21 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>21</v>
@@ -7333,10 +7327,10 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>36</v>
@@ -7345,18 +7339,18 @@
         <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>21</v>
@@ -7375,7 +7369,7 @@
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>39</v>
@@ -7384,21 +7378,21 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>21</v>
@@ -7413,10 +7407,10 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I136" s="2">
         <v>51</v>
@@ -7425,18 +7419,18 @@
         <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>127</v>
@@ -7448,7 +7442,7 @@
         <v>134</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>135</v>
@@ -7457,21 +7451,21 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>127</v>
@@ -7486,24 +7480,24 @@
         <v>176</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>127</v>
@@ -7515,7 +7509,7 @@
         <v>142</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I139" s="2">
         <v>82</v>
@@ -7524,21 +7518,21 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
@@ -7550,7 +7544,7 @@
         <v>6</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I140" s="2">
         <v>40</v>
@@ -7559,21 +7553,21 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>85</v>
@@ -7585,7 +7579,7 @@
         <v>206</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I141" s="2">
         <v>69</v>
@@ -7597,13 +7591,13 @@
         <v>182</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>205</v>
@@ -7611,7 +7605,7 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>85</v>
@@ -7620,444 +7614,444 @@
         <v>202</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q142" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q142" s="12" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="H143" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I144" s="2" t="s">
+      <c r="K144" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q144" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q145" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q145" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="H147" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="L148" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="L149" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\myprograms\python\sastacode\sastadev\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Odijk101\Dropbox\jodijk\myprograms\python\sastacode\sastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8AEB9A-3DBD-4F10-A244-904A85126CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF7D176-1168-420B-8E00-3F7EF69116BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,9 +558,6 @@
     <t>need special things</t>
   </si>
   <si>
-    <t>//node[@pt="vg" and @lemma="en" ]</t>
-  </si>
-  <si>
     <t>//node[@pt="ww" and @pvagr="mv" and @pvtijd="tgw" ]</t>
   </si>
   <si>
@@ -574,9 +571,6 @@
   </si>
   <si>
     <t>//node[@lemma="als" and @pt="vg"]</t>
-  </si>
-  <si>
-    <t>//node[@word="hem" and @pt="vnw"]</t>
   </si>
   <si>
     <t>//node[@lemma="er"]</t>
@@ -1644,12 +1638,6 @@
   </si>
   <si>
     <t>//node[node[@rel="cnj" and (@cat="smain" or @cat="sv1")] and node[@rel="crd" ]]</t>
-  </si>
-  <si>
-    <t>//node[@rel="su" and (@pt or @cat) or
-       (@rel="mod" and @lemma="er" and ../node[@rel="su" and @begin&gt;=../node[@rel="mod" and @lemma="er"]/@end]) or
-       (@rel="mod" and @lemma="er" and ../node[@rel="su" and not(@pt) and not(@cat)])
-]</t>
   </si>
   <si>
     <t>//node[%Tarsp_Kop%]</t>
@@ -1909,6 +1897,15 @@
   </si>
   <si>
     <t>Ond,W,B,B</t>
+  </si>
+  <si>
+    <t>//node[%FullOnd%]</t>
+  </si>
+  <si>
+    <t>//node[@pt="vg" and @lemma="en" and @rel="dlink"]</t>
+  </si>
+  <si>
+    <t>//node[@lemma="hem" and @pt="vnw"]</t>
   </si>
 </sst>
 </file>
@@ -2329,11 +2326,11 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2355,7 +2352,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2364,19 +2361,19 @@
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2388,19 +2385,19 @@
         <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>160</v>
@@ -2408,7 +2405,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -2417,19 +2414,19 @@
         <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I2" s="2">
         <v>60</v>
@@ -2438,21 +2435,21 @@
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -2461,13 +2458,13 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I3" s="2">
         <v>56</v>
@@ -2476,24 +2473,24 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -2502,16 +2499,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>66</v>
@@ -2520,30 +2517,30 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>124</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I5" s="2">
         <v>77</v>
@@ -2552,36 +2549,36 @@
         <v>6</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I6" s="2">
         <v>79</v>
@@ -2590,39 +2587,39 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I7" s="2">
         <v>42</v>
@@ -2631,21 +2628,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>85</v>
@@ -2654,13 +2651,13 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I8" s="2">
         <v>70</v>
@@ -2669,21 +2666,21 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -2692,13 +2689,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I9" s="2">
         <v>57</v>
@@ -2707,36 +2704,36 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I10" s="2">
         <v>67</v>
@@ -2745,21 +2742,21 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>85</v>
@@ -2768,13 +2765,13 @@
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I11" s="2">
         <v>70</v>
@@ -2783,18 +2780,18 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -2803,16 +2800,16 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -2821,33 +2818,33 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I13" s="2">
         <v>71</v>
@@ -2856,21 +2853,21 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>85</v>
@@ -2879,13 +2876,13 @@
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
@@ -2894,33 +2891,33 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I15" s="2">
         <v>68</v>
@@ -2929,62 +2926,62 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>119</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I17" s="2">
         <v>75</v>
@@ -2993,18 +2990,18 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -3013,16 +3010,16 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>52</v>
@@ -3031,36 +3028,36 @@
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I19" s="2">
         <v>40</v>
@@ -3069,33 +3066,33 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>156</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>158</v>
@@ -3104,30 +3101,30 @@
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I21" s="2">
         <v>69</v>
@@ -3136,33 +3133,33 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I22" s="2">
         <v>66</v>
@@ -3171,21 +3168,21 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -3194,16 +3191,16 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I23" s="2">
         <v>53</v>
@@ -3212,21 +3209,21 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -3235,10 +3232,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
@@ -3247,7 +3244,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>29</v>
@@ -3256,36 +3253,36 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>20</v>
@@ -3294,30 +3291,30 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I26" s="2">
         <v>66</v>
@@ -3326,36 +3323,36 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I27" s="2">
         <v>68</v>
@@ -3364,33 +3361,33 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I28" s="2">
         <v>71</v>
@@ -3399,33 +3396,33 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I29" s="2">
         <v>64</v>
@@ -3434,36 +3431,36 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I30" s="2">
         <v>77</v>
@@ -3472,36 +3469,36 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>173</v>
+        <v>590</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>138</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I31" s="2">
         <v>81</v>
@@ -3510,36 +3507,36 @@
         <v>6</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I32" s="2">
         <v>72</v>
@@ -3548,21 +3545,21 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -3571,16 +3568,16 @@
         <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>71</v>
@@ -3592,30 +3589,30 @@
         <v>164</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I34" s="2">
         <v>82</v>
@@ -3624,33 +3621,33 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>179</v>
+        <v>591</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I35" s="2">
         <v>80</v>
@@ -3659,33 +3656,33 @@
         <v>4</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I36" s="2">
         <v>71</v>
@@ -3694,33 +3691,33 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I37" s="2">
         <v>80</v>
@@ -3729,74 +3726,74 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I38" s="2">
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I39" s="2">
         <v>69</v>
@@ -3805,33 +3802,33 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>148</v>
@@ -3840,36 +3837,36 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I41" s="2">
         <v>79</v>
@@ -3881,18 +3878,18 @@
         <v>169</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
@@ -3901,16 +3898,16 @@
         <v>68</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I42" s="2">
         <v>59</v>
@@ -3919,13 +3916,13 @@
         <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>163</v>
@@ -3933,7 +3930,7 @@
     </row>
     <row r="43" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
@@ -3942,16 +3939,16 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -3960,36 +3957,36 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I44" s="2">
         <v>79</v>
@@ -3998,33 +3995,33 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>139</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I45" s="2">
         <v>82</v>
@@ -4033,21 +4030,21 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>21</v>
@@ -4056,16 +4053,16 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>31</v>
@@ -4074,33 +4071,33 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>123</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I47" s="2">
         <v>77</v>
@@ -4109,53 +4106,53 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>21</v>
@@ -4164,13 +4161,13 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>24</v>
@@ -4179,30 +4176,30 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I50" s="2">
         <v>81</v>
@@ -4211,33 +4208,33 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>154</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -4246,36 +4243,36 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>146</v>
@@ -4287,30 +4284,30 @@
         <v>170</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I53" s="2">
         <v>73</v>
@@ -4319,21 +4316,21 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
@@ -4342,13 +4339,13 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I54" s="2">
         <v>56</v>
@@ -4357,21 +4354,21 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>21</v>
@@ -4380,13 +4377,13 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I55" s="2">
         <v>54</v>
@@ -4395,30 +4392,30 @@
         <v>6</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I56" s="2">
         <v>74</v>
@@ -4427,30 +4424,30 @@
         <v>7</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I57" s="2">
         <v>41</v>
@@ -4459,21 +4456,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
@@ -4482,16 +4479,16 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I58" s="2">
         <v>45</v>
@@ -4500,21 +4497,21 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>21</v>
@@ -4523,16 +4520,16 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I59" s="2">
         <v>51</v>
@@ -4541,21 +4538,21 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
@@ -4564,16 +4561,16 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I60" s="2">
         <v>58</v>
@@ -4582,18 +4579,18 @@
         <v>7</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
@@ -4602,13 +4599,13 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>59</v>
@@ -4617,21 +4614,21 @@
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
@@ -4640,13 +4637,13 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I62" s="2">
         <v>55</v>
@@ -4655,21 +4652,21 @@
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>21</v>
@@ -4678,13 +4675,13 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>55</v>
@@ -4693,33 +4690,33 @@
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I64" s="2">
         <v>75</v>
@@ -4728,21 +4725,21 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>21</v>
@@ -4751,16 +4748,16 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I65" s="2">
         <v>46</v>
@@ -4769,21 +4766,21 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>21</v>
@@ -4792,16 +4789,16 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I66" s="2">
         <v>46</v>
@@ -4810,21 +4807,21 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>21</v>
@@ -4833,16 +4830,16 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I67" s="2">
         <v>49</v>
@@ -4851,21 +4848,21 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>21</v>
@@ -4874,16 +4871,16 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I68" s="2">
         <v>52</v>
@@ -4892,21 +4889,21 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>21</v>
@@ -4915,16 +4912,16 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I69" s="2">
         <v>52</v>
@@ -4933,21 +4930,21 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>21</v>
@@ -4956,16 +4953,16 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I70" s="2">
         <v>48</v>
@@ -4974,21 +4971,21 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>21</v>
@@ -4997,16 +4994,16 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I71" s="2">
         <v>53</v>
@@ -5015,21 +5012,21 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>21</v>
@@ -5038,16 +5035,16 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I72" s="2">
         <v>48</v>
@@ -5056,18 +5053,18 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
@@ -5076,16 +5073,16 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I73" s="2">
         <v>51</v>
@@ -5094,21 +5091,21 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
@@ -5117,16 +5114,16 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I74" s="2">
         <v>58</v>
@@ -5135,30 +5132,30 @@
         <v>7</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -5167,33 +5164,33 @@
         <v>7</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I76" s="2">
         <v>78</v>
@@ -5202,21 +5199,21 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>21</v>
@@ -5225,16 +5222,16 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I77" s="2">
         <v>52</v>
@@ -5243,21 +5240,21 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>21</v>
@@ -5266,16 +5263,16 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I78" s="2">
         <v>53</v>
@@ -5284,36 +5281,36 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I79" s="2">
         <v>82</v>
@@ -5322,33 +5319,33 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>153</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I80" s="2">
         <v>86</v>
@@ -5357,16 +5354,16 @@
         <v>4</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>168</v>
@@ -5374,19 +5371,19 @@
     </row>
     <row r="81" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5395,36 +5392,36 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I82" s="2">
         <v>86</v>
@@ -5433,47 +5430,47 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>21</v>
@@ -5482,13 +5479,13 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>64</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I84" s="2">
         <v>57</v>
@@ -5497,33 +5494,33 @@
         <v>7</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I85" s="2">
         <v>42</v>
@@ -5532,30 +5529,30 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>17</v>
@@ -5564,30 +5561,30 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I87" s="2">
         <v>43</v>
@@ -5596,33 +5593,33 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I88" s="2">
         <v>37</v>
@@ -5631,33 +5628,33 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3</v>
@@ -5666,36 +5663,36 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>4</v>
@@ -5704,82 +5701,82 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="J91" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>162</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>21</v>
@@ -5788,16 +5785,16 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>63</v>
@@ -5806,21 +5803,21 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>21</v>
@@ -5829,16 +5826,16 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I94" s="2">
         <v>46</v>
@@ -5847,13 +5844,13 @@
         <v>2</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>161</v>
@@ -5861,7 +5858,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>21</v>
@@ -5870,16 +5867,16 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I95" s="2">
         <v>52</v>
@@ -5888,33 +5885,33 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I96" s="2">
         <v>75</v>
@@ -5923,65 +5920,65 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I98" s="2">
         <v>88</v>
@@ -5990,33 +5987,33 @@
         <v>7</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I99" s="2">
         <v>83</v>
@@ -6028,36 +6025,36 @@
         <v>167</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I100" s="2">
         <v>87</v>
@@ -6066,33 +6063,33 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I101" s="2">
         <v>71</v>
@@ -6101,33 +6098,33 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I102" s="2">
         <v>80</v>
@@ -6136,36 +6133,36 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>150</v>
@@ -6177,33 +6174,33 @@
         <v>171</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I104" s="2">
         <v>88</v>
@@ -6212,16 +6209,16 @@
         <v>7</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>172</v>
@@ -6229,36 +6226,36 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>166</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
@@ -6267,16 +6264,16 @@
         <v>68</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I106" s="2">
         <v>60</v>
@@ -6285,16 +6282,16 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>165</v>
@@ -6302,7 +6299,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>21</v>
@@ -6311,13 +6308,13 @@
         <v>68</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I107" s="2">
         <v>61</v>
@@ -6326,24 +6323,24 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>21</v>
@@ -6352,13 +6349,13 @@
         <v>68</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>79</v>
@@ -6367,19 +6364,19 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>165</v>
@@ -6387,19 +6384,19 @@
     </row>
     <row r="109" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>109</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I109" s="2">
         <v>72</v>
@@ -6408,33 +6405,33 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I110" s="2">
         <v>74</v>
@@ -6444,30 +6441,30 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>92</v>
@@ -6476,34 +6473,34 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I112" s="2">
         <v>65</v>
@@ -6512,24 +6509,24 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>85</v>
@@ -6538,13 +6535,13 @@
         <v>32</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I113" s="2">
         <v>70</v>
@@ -6553,30 +6550,30 @@
         <v>4</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>9</v>
@@ -6585,33 +6582,33 @@
         <v>1</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>13</v>
@@ -6620,24 +6617,24 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>21</v>
@@ -6646,7 +6643,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>81</v>
@@ -6655,7 +6652,7 @@
         <v>8</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I116" s="2">
         <v>62</v>
@@ -6664,86 +6661,86 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>126</v>
@@ -6752,24 +6749,24 @@
         <v>6</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>21</v>
@@ -6778,16 +6775,16 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I120" s="2">
         <v>51</v>
@@ -6796,33 +6793,33 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I121" s="2">
         <v>68</v>
@@ -6831,33 +6828,33 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I122" s="2">
         <v>75</v>
@@ -6866,33 +6863,33 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>136</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I123" s="2">
         <v>81</v>
@@ -6901,21 +6898,21 @@
         <v>5</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>21</v>
@@ -6924,16 +6921,16 @@
         <v>68</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I124" s="2">
         <v>60</v>
@@ -6942,21 +6939,21 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>21</v>
@@ -6965,16 +6962,16 @@
         <v>68</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -6983,24 +6980,24 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>21</v>
@@ -7009,16 +7006,16 @@
         <v>68</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I126" s="2">
         <v>61</v>
@@ -7027,68 +7024,68 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I127" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q127" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q127" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>111</v>
@@ -7097,33 +7094,33 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I129" s="2">
         <v>73</v>
@@ -7132,18 +7129,18 @@
         <v>6</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>21</v>
@@ -7152,7 +7149,7 @@
         <v>80</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>82</v>
@@ -7161,7 +7158,7 @@
         <v>8</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I130" s="2">
         <v>63</v>
@@ -7170,21 +7167,21 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>21</v>
@@ -7193,7 +7190,7 @@
         <v>80</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>83</v>
@@ -7202,7 +7199,7 @@
         <v>8</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I131" s="2">
         <v>63</v>
@@ -7211,21 +7208,21 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>21</v>
@@ -7234,19 +7231,19 @@
         <v>80</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I132" s="2">
         <v>63</v>
@@ -7255,40 +7252,40 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I133" s="2">
         <v>72</v>
@@ -7297,21 +7294,21 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>21</v>
@@ -7320,17 +7317,17 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>36</v>
@@ -7339,18 +7336,18 @@
         <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>21</v>
@@ -7359,17 +7356,17 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>39</v>
@@ -7378,21 +7375,21 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>21</v>
@@ -7401,16 +7398,16 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I136" s="2">
         <v>51</v>
@@ -7419,30 +7416,30 @@
         <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>134</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>135</v>
@@ -7451,21 +7448,21 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>127</v>
@@ -7474,42 +7471,42 @@
         <v>32</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I139" s="2">
         <v>82</v>
@@ -7518,33 +7515,33 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I140" s="2">
         <v>40</v>
@@ -7553,33 +7550,33 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I141" s="2">
         <v>69</v>
@@ -7588,470 +7585,470 @@
         <v>4</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q142" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E144" s="2" t="s">
+      <c r="H144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q144" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I145" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="K145" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q145" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="J146" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="L148" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K149" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="L149" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Odijk101\Dropbox\jodijk\myprograms\python\sastacode\sastadev\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\sastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF7D176-1168-420B-8E00-3F7EF69116BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07808E40-558F-43A9-85EA-E9EDBDD294F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,9 +1634,6 @@
     <t>//node[@pt="ww" and @rel="hd"  and parent::node[node[ @rel="vc" and (@cat="inf" or @cat="ppart")]]]</t>
   </si>
   <si>
-    <t>//node[@pt="vnw"  and @vwtype="aanw" and @lemma!="hier" and @lemma!="daar" and @lemma!="er" and @rel!="det" and (not(@positie) or @positie!="prenom") ]</t>
-  </si>
-  <si>
     <t>//node[node[@rel="cnj" and (@cat="smain" or @cat="sv1")] and node[@rel="crd" ]]</t>
   </si>
   <si>
@@ -1906,6 +1903,9 @@
   </si>
   <si>
     <t>//node[@lemma="hem" and @pt="vnw"]</t>
+  </si>
+  <si>
+    <t>//node[%AVn% ]</t>
   </si>
 </sst>
 </file>
@@ -2326,11 +2326,11 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2417,7 +2417,7 @@
         <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>520</v>
+        <v>591</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>369</v>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>370</v>
@@ -2742,7 +2742,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>369</v>
@@ -2806,7 +2806,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>369</v>
@@ -2818,7 +2818,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>369</v>
@@ -2926,7 +2926,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>369</v>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>369</v>
@@ -3197,7 +3197,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>369</v>
@@ -3209,7 +3209,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>369</v>
@@ -3253,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>369</v>
@@ -3265,7 +3265,7 @@
         <v>462</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,7 +3323,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>369</v>
@@ -3469,7 +3469,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>369</v>
@@ -3621,7 +3621,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>369</v>
@@ -3764,7 +3764,7 @@
         <v>380</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>369</v>
@@ -3802,7 +3802,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>369</v>
@@ -3837,7 +3837,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>369</v>
@@ -3957,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>369</v>
@@ -3995,7 +3995,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>369</v>
@@ -4071,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>369</v>
@@ -4135,7 +4135,7 @@
         <v>370</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>370</v>
@@ -4354,7 +4354,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>369</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>370</v>
@@ -4497,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>369</v>
@@ -4538,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>369</v>
@@ -4766,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>369</v>
@@ -4807,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>369</v>
@@ -4848,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>369</v>
@@ -4877,7 +4877,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>369</v>
@@ -4971,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>369</v>
@@ -5000,7 +5000,7 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>369</v>
@@ -5012,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>369</v>
@@ -5041,7 +5041,7 @@
         <v>425</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>369</v>
@@ -5079,7 +5079,7 @@
         <v>194</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>369</v>
@@ -5091,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>369</v>
@@ -5228,7 +5228,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>369</v>
@@ -5240,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>369</v>
@@ -5269,7 +5269,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>369</v>
@@ -5281,7 +5281,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>369</v>
@@ -5307,7 +5307,7 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>369</v>
@@ -5392,7 +5392,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>369</v>
@@ -5430,7 +5430,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>369</v>
@@ -5616,7 +5616,7 @@
         <v>401</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>369</v>
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>369</v>
@@ -5724,7 +5724,7 @@
         <v>402</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>369</v>
@@ -5762,7 +5762,7 @@
         <v>369</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>370</v>
@@ -5803,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>369</v>
@@ -5873,7 +5873,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>369</v>
@@ -5885,7 +5885,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>369</v>
@@ -5952,7 +5952,7 @@
         <v>471</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>369</v>
@@ -6098,7 +6098,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>369</v>
@@ -6133,7 +6133,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>369</v>
@@ -6282,7 +6282,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>369</v>
@@ -6323,7 +6323,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>369</v>
@@ -6364,7 +6364,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>369</v>
@@ -6405,7 +6405,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>369</v>
@@ -6509,7 +6509,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>369</v>
@@ -6617,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>369</v>
@@ -6781,7 +6781,7 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>369</v>
@@ -6793,7 +6793,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>369</v>
@@ -6939,7 +6939,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>369</v>
@@ -6980,7 +6980,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>369</v>
@@ -7024,7 +7024,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>369</v>
@@ -7094,7 +7094,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>369</v>
@@ -7167,7 +7167,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>369</v>
@@ -7208,7 +7208,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>369</v>
@@ -7252,7 +7252,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>369</v>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>369</v>
@@ -7404,7 +7404,7 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>369</v>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>369</v>
@@ -7611,7 +7611,7 @@
         <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>369</v>
@@ -7815,7 +7815,7 @@
         <v>429</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>369</v>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\sastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07808E40-558F-43A9-85EA-E9EDBDD294F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E75810-3B31-409B-8908-EB9B0F89935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1672,13 +1672,6 @@
    ]</t>
   </si>
   <si>
-    <t>//node[node[@pt="vz" and @rel="hd"] and 
-            node[@rel="obj1" and 
-                 ((@index and not(@pt or @cat)) or
-                  (@end &lt; ../node[@rel="hd"]/@begin)
-                 )]]</t>
-  </si>
-  <si>
     <t>vu nee/ja, vu ja/nee,V.U. Ja/nee, nee, ja</t>
   </si>
   <si>
@@ -1862,9 +1855,6 @@
   </si>
   <si>
     <t>//node[%Tarsp_OndWB%]</t>
-  </si>
-  <si>
-    <t>//node[%Vobij%]</t>
   </si>
   <si>
     <t>//node[(@cat="top" and not(.//node[%pv%]) and not(.//node[@lemma="niet"]) and not(.//node[@rel="dlink"]) and
@@ -1906,6 +1896,12 @@
   </si>
   <si>
     <t>//node[%AVn% ]</t>
+  </si>
+  <si>
+    <t>vobij</t>
+  </si>
+  <si>
+    <t>voslashbij</t>
   </si>
 </sst>
 </file>
@@ -2326,11 +2322,11 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G98" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2417,7 +2413,7 @@
         <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -2587,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>369</v>
@@ -2628,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>370</v>
@@ -2806,7 +2802,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>369</v>
@@ -2818,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>369</v>
@@ -2926,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>369</v>
@@ -3197,7 +3193,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>369</v>
@@ -3209,7 +3205,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>369</v>
@@ -3253,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>369</v>
@@ -3265,7 +3261,7 @@
         <v>462</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,7 +3319,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>369</v>
@@ -3469,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>369</v>
@@ -3621,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>369</v>
@@ -3764,7 +3760,7 @@
         <v>380</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>369</v>
@@ -3802,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>369</v>
@@ -3957,7 +3953,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>369</v>
@@ -3995,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>369</v>
@@ -4135,7 +4131,7 @@
         <v>370</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>370</v>
@@ -4456,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>370</v>
@@ -4497,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>369</v>
@@ -4538,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>369</v>
@@ -4766,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>369</v>
@@ -4807,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>369</v>
@@ -4848,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>369</v>
@@ -4877,7 +4873,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>369</v>
@@ -4971,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>369</v>
@@ -5000,7 +4996,7 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>369</v>
@@ -5012,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>369</v>
@@ -5041,7 +5037,7 @@
         <v>425</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>369</v>
@@ -5079,7 +5075,7 @@
         <v>194</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>369</v>
@@ -5091,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>369</v>
@@ -5228,7 +5224,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>369</v>
@@ -5240,7 +5236,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>369</v>
@@ -5269,7 +5265,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>369</v>
@@ -5281,7 +5277,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>369</v>
@@ -5307,7 +5303,7 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>369</v>
@@ -5392,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>369</v>
@@ -5616,7 +5612,7 @@
         <v>401</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>369</v>
@@ -5628,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>369</v>
@@ -5724,7 +5720,7 @@
         <v>402</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>369</v>
@@ -5762,7 +5758,7 @@
         <v>369</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>370</v>
@@ -5803,7 +5799,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>369</v>
@@ -5873,7 +5869,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>369</v>
@@ -5885,7 +5881,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>369</v>
@@ -5952,7 +5948,7 @@
         <v>471</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>369</v>
@@ -6075,7 +6071,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>327</v>
       </c>
@@ -6098,7 +6094,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>369</v>
@@ -6133,7 +6129,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>369</v>
@@ -6282,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>369</v>
@@ -6323,7 +6319,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>369</v>
@@ -6364,7 +6360,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>369</v>
@@ -6509,7 +6505,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>369</v>
@@ -6617,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>369</v>
@@ -6781,7 +6777,7 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>369</v>
@@ -6793,7 +6789,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>369</v>
@@ -6939,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>369</v>
@@ -6980,7 +6976,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>369</v>
@@ -7024,7 +7020,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>369</v>
@@ -7094,7 +7090,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>369</v>
@@ -7167,7 +7163,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>369</v>
@@ -7208,7 +7204,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>369</v>
@@ -7252,7 +7248,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>369</v>
@@ -7324,7 +7320,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>369</v>
@@ -7404,7 +7400,7 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>369</v>
@@ -7611,7 +7607,7 @@
         <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>369</v>
@@ -7815,7 +7811,7 @@
         <v>429</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>369</v>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\sastadev\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E75810-3B31-409B-8908-EB9B0F89935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3DD31A-C98A-44BD-9F5D-9393ACD96900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1163,9 +1163,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>//node[@cat="pp" and node[ @rel="obj1" and node[@rel="det"] ]]</t>
-  </si>
-  <si>
     <t>//node[(@cat="ap" or @cat="advp" or @cat="np" or @cat="pp" or 
   node[@rel="vc" and (@cat="inf" or @cat="ppart")]) and parent::node[count(node[@cat or @pt!="let"])&gt;1]]</t>
   </si>
@@ -1902,6 +1899,9 @@
   </si>
   <si>
     <t>voslashbij</t>
+  </si>
+  <si>
+    <t>//node[@cat="pp" and node[@rel="hd"] and node[ @rel="obj1" and node[@rel="det"] ]]</t>
   </si>
 </sst>
 </file>
@@ -2326,7 +2326,7 @@
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,19 +2381,19 @@
         <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>160</v>
@@ -2413,7 +2413,7 @@
         <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -2437,10 +2437,10 @@
         <v>370</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2469,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>369</v>
@@ -2478,10 +2478,10 @@
         <v>369</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -2498,7 +2498,7 @@
         <v>199</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
@@ -2519,7 +2519,7 @@
         <v>370</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -2554,7 +2554,7 @@
         <v>370</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>191</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>369</v>
@@ -2592,13 +2592,13 @@
         <v>370</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>370</v>
@@ -2633,7 +2633,7 @@
         <v>370</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>370</v>
@@ -2671,7 +2671,7 @@
         <v>370</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -2700,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>369</v>
@@ -2709,10 +2709,10 @@
         <v>369</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2738,7 +2738,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>369</v>
@@ -2747,7 +2747,7 @@
         <v>370</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -2782,7 +2782,7 @@
         <v>370</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -2802,7 +2802,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>369</v>
@@ -2814,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>369</v>
@@ -2823,7 +2823,7 @@
         <v>370</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2858,7 +2858,7 @@
         <v>370</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -2887,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>370</v>
@@ -2896,7 +2896,7 @@
         <v>370</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
@@ -2922,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>369</v>
@@ -2931,7 +2931,7 @@
         <v>370</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -2951,7 +2951,7 @@
         <v>369</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>370</v>
@@ -2960,7 +2960,7 @@
         <v>370</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +2992,7 @@
         <v>369</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,10 +3009,10 @@
         <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>369</v>
@@ -3030,10 +3030,10 @@
         <v>370</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3047,7 +3047,7 @@
         <v>199</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>369</v>
@@ -3071,7 +3071,7 @@
         <v>369</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3103,7 @@
         <v>370</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>369</v>
@@ -3138,7 +3138,7 @@
         <v>370</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>369</v>
@@ -3173,7 +3173,7 @@
         <v>370</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3193,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>369</v>
@@ -3205,7 +3205,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>369</v>
@@ -3214,7 +3214,7 @@
         <v>370</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
@@ -3231,7 +3231,7 @@
         <v>199</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
@@ -3249,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>369</v>
@@ -3258,10 +3258,10 @@
         <v>370</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3293,7 @@
         <v>370</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3319,7 +3319,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>369</v>
@@ -3328,10 +3328,10 @@
         <v>370</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>369</v>
@@ -3366,7 +3366,7 @@
         <v>370</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3392,7 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>369</v>
@@ -3401,7 +3401,7 @@
         <v>369</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,19 +3427,19 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>369</v>
@@ -3474,7 +3474,7 @@
         <v>369</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>191</v>
@@ -3512,7 +3512,7 @@
         <v>370</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3529,7 +3529,7 @@
         <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>369</v>
@@ -3541,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>369</v>
@@ -3550,7 +3550,7 @@
         <v>370</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3591,7 @@
         <v>370</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>369</v>
@@ -3626,7 +3626,7 @@
         <v>370</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>369</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3687,7 +3687,7 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>369</v>
@@ -3696,7 +3696,7 @@
         <v>369</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>369</v>
@@ -3731,7 +3731,7 @@
         <v>370</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,10 +3757,10 @@
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>369</v>
@@ -3769,7 +3769,7 @@
         <v>370</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
@@ -3798,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>369</v>
@@ -3807,7 +3807,7 @@
         <v>370</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>369</v>
@@ -3842,10 +3842,10 @@
         <v>369</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3880,7 @@
         <v>369</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,7 +3900,7 @@
         <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>369</v>
@@ -3918,7 +3918,7 @@
         <v>370</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>163</v>
@@ -3938,10 +3938,10 @@
         <v>199</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>369</v>
@@ -3953,7 +3953,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>369</v>
@@ -3962,10 +3962,10 @@
         <v>370</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>369</v>
@@ -4000,7 +4000,7 @@
         <v>370</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -4026,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>369</v>
@@ -4035,7 +4035,7 @@
         <v>370</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>369</v>
@@ -4076,7 +4076,7 @@
         <v>370</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -4102,7 +4102,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>369</v>
@@ -4111,7 +4111,7 @@
         <v>370</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>191</v>
@@ -4131,7 +4131,7 @@
         <v>370</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>370</v>
@@ -4140,7 +4140,7 @@
         <v>370</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>186</v>
@@ -4178,7 +4178,7 @@
         <v>370</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -4204,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>369</v>
@@ -4213,7 +4213,7 @@
         <v>370</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,7 +4248,7 @@
         <v>370</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4286,7 @@
         <v>370</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,7 +4312,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>369</v>
@@ -4321,7 +4321,7 @@
         <v>370</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4350,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>369</v>
@@ -4359,7 +4359,7 @@
         <v>370</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,7 +4394,7 @@
         <v>369</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4426,7 @@
         <v>370</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>370</v>
@@ -4461,7 +4461,7 @@
         <v>370</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>369</v>
@@ -4502,7 +4502,7 @@
         <v>369</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>369</v>
@@ -4543,7 +4543,7 @@
         <v>370</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4560,7 @@
         <v>199</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>67</v>
@@ -4581,7 +4581,7 @@
         <v>370</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,10 +4616,10 @@
         <v>370</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,10 +4654,10 @@
         <v>370</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,10 +4692,10 @@
         <v>370</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,7 +4721,7 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>370</v>
@@ -4730,7 +4730,7 @@
         <v>369</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>369</v>
@@ -4771,7 +4771,7 @@
         <v>369</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>369</v>
@@ -4812,7 +4812,7 @@
         <v>369</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>369</v>
@@ -4853,7 +4853,7 @@
         <v>370</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4873,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>369</v>
@@ -4885,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>369</v>
@@ -4894,7 +4894,7 @@
         <v>370</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>369</v>
@@ -4935,7 +4935,7 @@
         <v>369</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>369</v>
@@ -4976,7 +4976,7 @@
         <v>369</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,7 +4996,7 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>369</v>
@@ -5008,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>369</v>
@@ -5017,7 +5017,7 @@
         <v>369</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,10 +5034,10 @@
         <v>199</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>369</v>
@@ -5055,7 +5055,7 @@
         <v>370</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5075,7 @@
         <v>194</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>369</v>
@@ -5087,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>369</v>
@@ -5096,7 +5096,7 @@
         <v>370</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,7 +5116,7 @@
         <v>195</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>369</v>
@@ -5134,7 +5134,7 @@
         <v>370</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5166,7 @@
         <v>370</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,7 +5183,7 @@
         <v>197</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>369</v>
@@ -5201,7 +5201,7 @@
         <v>370</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>192</v>
@@ -5224,7 +5224,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>369</v>
@@ -5236,7 +5236,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>369</v>
@@ -5245,7 +5245,7 @@
         <v>370</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,7 +5265,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>369</v>
@@ -5277,7 +5277,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>369</v>
@@ -5286,7 +5286,7 @@
         <v>370</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5303,7 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>369</v>
@@ -5315,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>369</v>
@@ -5324,7 +5324,7 @@
         <v>370</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,7 +5359,7 @@
         <v>370</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>168</v>
@@ -5388,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>369</v>
@@ -5397,7 +5397,7 @@
         <v>370</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -5414,7 +5414,7 @@
         <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>369</v>
@@ -5426,7 +5426,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>369</v>
@@ -5435,7 +5435,7 @@
         <v>370</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -5461,7 +5461,7 @@
         <v>370</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -5499,7 +5499,7 @@
         <v>370</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,7 +5531,7 @@
         <v>370</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,7 +5563,7 @@
         <v>370</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5595,7 @@
         <v>370</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
@@ -5609,10 +5609,10 @@
         <v>199</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>369</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>369</v>
@@ -5633,7 +5633,7 @@
         <v>370</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,7 +5647,7 @@
         <v>199</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>369</v>
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>369</v>
@@ -5668,7 +5668,7 @@
         <v>370</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,10 +5682,10 @@
         <v>199</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>369</v>
@@ -5703,12 +5703,12 @@
         <v>370</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
@@ -5717,22 +5717,22 @@
         <v>199</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>369</v>
@@ -5741,7 +5741,7 @@
         <v>370</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,7 +5758,7 @@
         <v>369</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>370</v>
@@ -5767,7 +5767,7 @@
         <v>370</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,7 +5787,7 @@
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>369</v>
@@ -5799,7 +5799,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>369</v>
@@ -5808,7 +5808,7 @@
         <v>369</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,7 +5846,7 @@
         <v>369</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>161</v>
@@ -5869,7 +5869,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>369</v>
@@ -5881,7 +5881,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>369</v>
@@ -5890,7 +5890,7 @@
         <v>369</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5916,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>370</v>
@@ -5925,7 +5925,7 @@
         <v>369</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
@@ -5942,13 +5942,13 @@
         <v>369</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>369</v>
@@ -5957,7 +5957,7 @@
         <v>370</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,7 +5989,7 @@
         <v>370</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6003,7 @@
         <v>201</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>144</v>
@@ -6027,10 +6027,10 @@
         <v>370</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6047,7 @@
         <v>155</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>369</v>
@@ -6059,7 +6059,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>369</v>
@@ -6068,7 +6068,7 @@
         <v>369</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>369</v>
@@ -6103,7 +6103,7 @@
         <v>370</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6129,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>369</v>
@@ -6138,7 +6138,7 @@
         <v>370</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6176,7 @@
         <v>370</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,10 +6190,10 @@
         <v>201</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>369</v>
@@ -6211,10 +6211,10 @@
         <v>370</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>172</v>
@@ -6234,19 +6234,19 @@
         <v>369</v>
       </c>
       <c r="K105" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q105" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,7 +6266,7 @@
         <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>369</v>
@@ -6278,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>369</v>
@@ -6287,7 +6287,7 @@
         <v>370</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>165</v>
@@ -6319,7 +6319,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>369</v>
@@ -6328,10 +6328,10 @@
         <v>370</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6360,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>369</v>
@@ -6369,10 +6369,10 @@
         <v>369</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>165</v>
@@ -6401,7 +6401,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>369</v>
@@ -6410,7 +6410,7 @@
         <v>370</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6443,7 @@
         <v>370</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>371</v>
+        <v>591</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>369</v>
@@ -6478,7 +6478,7 @@
         <v>369</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6505,7 +6505,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>369</v>
@@ -6514,10 +6514,10 @@
         <v>370</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6552,7 @@
         <v>370</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6566,7 @@
         <v>199</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>369</v>
@@ -6587,7 +6587,7 @@
         <v>369</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>369</v>
@@ -6622,10 +6622,10 @@
         <v>370</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,7 +6657,7 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>369</v>
@@ -6666,7 +6666,7 @@
         <v>370</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6677,7 @@
         <v>199</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -6694,7 +6694,7 @@
         <v>370</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6719,7 @@
         <v>370</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +6754,7 @@
         <v>370</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>191</v>
@@ -6777,7 +6777,7 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>369</v>
@@ -6789,7 +6789,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>369</v>
@@ -6798,7 +6798,7 @@
         <v>370</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>369</v>
@@ -6833,7 +6833,7 @@
         <v>370</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>370</v>
@@ -6868,7 +6868,7 @@
         <v>369</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,7 +6903,7 @@
         <v>369</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>369</v>
@@ -6944,7 +6944,7 @@
         <v>370</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,7 +6976,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>369</v>
@@ -6985,10 +6985,10 @@
         <v>370</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,7 +7020,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>369</v>
@@ -7029,7 +7029,7 @@
         <v>369</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -7052,7 +7052,7 @@
         <v>188</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>370</v>
@@ -7061,7 +7061,7 @@
         <v>370</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>190</v>
@@ -7090,7 +7090,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>369</v>
@@ -7099,7 +7099,7 @@
         <v>370</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,7 +7131,7 @@
         <v>370</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,7 +7163,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>369</v>
@@ -7172,7 +7172,7 @@
         <v>370</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,7 +7204,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>369</v>
@@ -7213,7 +7213,7 @@
         <v>370</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,7 +7233,7 @@
         <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
@@ -7248,7 +7248,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>369</v>
@@ -7257,10 +7257,10 @@
         <v>370</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,7 +7277,7 @@
         <v>107</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
@@ -7290,7 +7290,7 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>369</v>
@@ -7299,7 +7299,7 @@
         <v>370</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>369</v>
@@ -7338,7 +7338,7 @@
         <v>370</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -7371,7 +7371,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>369</v>
@@ -7380,7 +7380,7 @@
         <v>370</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,7 +7400,7 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>369</v>
@@ -7418,7 +7418,7 @@
         <v>370</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,7 +7444,7 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>369</v>
@@ -7453,7 +7453,7 @@
         <v>370</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,10 +7482,10 @@
         <v>370</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
@@ -7511,7 +7511,7 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>369</v>
@@ -7520,7 +7520,7 @@
         <v>370</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -7546,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>369</v>
@@ -7555,7 +7555,7 @@
         <v>369</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -7590,7 +7590,7 @@
         <v>370</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>203</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>85</v>
@@ -7607,51 +7607,51 @@
         <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q142" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q142" s="12" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="H143" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>369</v>
@@ -7660,97 +7660,97 @@
         <v>370</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I144" s="2" t="s">
+      <c r="K144" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q144" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q145" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q145" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>369</v>
@@ -7759,33 +7759,33 @@
         <v>370</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="H147" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>369</v>
@@ -7794,34 +7794,34 @@
         <v>370</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="L148" s="2" t="s">
         <v>369</v>
       </c>
@@ -7829,28 +7829,28 @@
         <v>370</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="L149" s="2" t="s">
         <v>370</v>
       </c>
@@ -7858,33 +7858,33 @@
         <v>369</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>369</v>
@@ -7893,30 +7893,30 @@
         <v>370</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>369</v>
@@ -7925,30 +7925,30 @@
         <v>370</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>369</v>
@@ -7957,30 +7957,30 @@
         <v>370</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>369</v>
@@ -7989,27 +7989,27 @@
         <v>370</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>369</v>
@@ -8018,24 +8018,24 @@
         <v>370</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>369</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>369</v>
@@ -8044,7 +8044,7 @@
         <v>370</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3DD31A-C98A-44BD-9F5D-9393ACD96900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBBAE2E-28B9-4494-85FA-4F8755F38AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="593">
   <si>
     <t>Item</t>
   </si>
@@ -1205,9 +1205,6 @@
     <t>//node[@cat="np" and
     node[@pt="lid" and @rel="det" and @lemma="het"] and
     node[@rel="hd" and @pt="n"]]</t>
-  </si>
-  <si>
-    <t>//node[@lemma="hij" and @pt="vnw"]</t>
   </si>
   <si>
     <t>PV-loos</t>
@@ -1687,12 +1684,6 @@
   </si>
   <si>
     <t>//node[@cat="np" and node[@rel="det" and @lemma="de"] and count(node)=2]</t>
-  </si>
-  <si>
-    <t>//node[(@pt="ww" and @rel="hd" and 
-           (@lemma="hebben" or @lemma="worden" or @lemma="zijn") and
-       parent::node[node[@rel="vc" and (@cat="ppart" or (@pt="ww" and @wvorm="vd"))]
-       ]) or %robusthwwvd%]</t>
   </si>
   <si>
     <t>v.u.soc.divers,vu divers,vu soc divers, DIV</t>
@@ -1902,6 +1893,18 @@
   </si>
   <si>
     <t>//node[@cat="pp" and node[@rel="hd"] and node[ @rel="obj1" and node[@rel="det"] ]]</t>
+  </si>
+  <si>
+    <t>//node[(@lemma="hij" or @lemma="ie")  and @pt="vnw"]</t>
+  </si>
+  <si>
+    <t>//node[@cat="whq" and node[@cat="sv1"] and count(node)=1]</t>
+  </si>
+  <si>
+    <t>//node[(@pt="ww" and @rel="hd" and 
+           (@lemma="hebben" or @lemma="worden" or @lemma="zijn") and
+       parent::node[node[@rel="vc" and ((@cat="ppart" and node[@rel="hd"]) or (@pt="ww" and @wvorm="vd"))]
+       ]) or %robusthwwvd%]</t>
   </si>
 </sst>
 </file>
@@ -2322,11 +2325,11 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,19 +2384,19 @@
         <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>160</v>
@@ -2413,7 +2416,7 @@
         <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -2430,6 +2433,9 @@
       <c r="J2" s="2">
         <v>3</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>591</v>
+      </c>
       <c r="L2" s="2" t="s">
         <v>369</v>
       </c>
@@ -2437,10 +2443,10 @@
         <v>370</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2469,7 +2475,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>369</v>
@@ -2478,10 +2484,10 @@
         <v>369</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -2498,7 +2504,7 @@
         <v>199</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
@@ -2519,7 +2525,7 @@
         <v>370</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -2554,7 +2560,7 @@
         <v>370</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>191</v>
@@ -2583,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>369</v>
@@ -2592,13 +2598,13 @@
         <v>370</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>375</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -2624,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>370</v>
@@ -2633,7 +2639,7 @@
         <v>370</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
@@ -2662,7 +2668,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>370</v>
@@ -2671,7 +2677,7 @@
         <v>370</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -2700,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>369</v>
@@ -2709,10 +2715,10 @@
         <v>369</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2738,7 +2744,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>369</v>
@@ -2747,7 +2753,7 @@
         <v>370</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -2782,7 +2788,7 @@
         <v>370</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -2802,7 +2808,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>369</v>
@@ -2814,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>369</v>
@@ -2823,7 +2829,7 @@
         <v>370</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2858,7 +2864,7 @@
         <v>370</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -2887,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>370</v>
@@ -2896,7 +2902,7 @@
         <v>370</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
@@ -2922,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>369</v>
@@ -2931,7 +2937,7 @@
         <v>370</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -2951,7 +2957,7 @@
         <v>369</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>370</v>
@@ -2960,7 +2966,7 @@
         <v>370</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +2998,7 @@
         <v>369</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,10 +3015,10 @@
         <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>369</v>
@@ -3030,10 +3036,10 @@
         <v>370</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3047,7 +3053,7 @@
         <v>199</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
@@ -3062,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>369</v>
@@ -3071,7 +3077,7 @@
         <v>369</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3109,7 @@
         <v>370</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>369</v>
@@ -3138,7 +3144,7 @@
         <v>370</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>369</v>
@@ -3173,7 +3179,7 @@
         <v>370</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3199,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>369</v>
@@ -3205,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>369</v>
@@ -3214,7 +3220,7 @@
         <v>370</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
@@ -3231,7 +3237,7 @@
         <v>199</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
@@ -3249,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>369</v>
@@ -3258,10 +3264,10 @@
         <v>370</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3299,7 @@
         <v>370</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3319,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>369</v>
@@ -3328,10 +3334,10 @@
         <v>370</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>369</v>
@@ -3366,7 +3372,7 @@
         <v>370</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3398,7 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>369</v>
@@ -3401,7 +3407,7 @@
         <v>369</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,19 +3433,19 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>369</v>
@@ -3474,7 +3480,7 @@
         <v>369</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>191</v>
@@ -3512,7 +3518,7 @@
         <v>370</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3550,7 +3556,7 @@
         <v>370</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3597,7 @@
         <v>370</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>369</v>
@@ -3626,7 +3632,7 @@
         <v>370</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3667,7 @@
         <v>369</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3696,7 +3702,7 @@
         <v>369</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>384</v>
+        <v>590</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>369</v>
@@ -3731,7 +3737,7 @@
         <v>370</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3766,7 @@
         <v>379</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>369</v>
@@ -3769,7 +3775,7 @@
         <v>370</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
@@ -3798,7 +3804,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>369</v>
@@ -3807,7 +3813,7 @@
         <v>370</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3839,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>369</v>
@@ -3842,10 +3848,10 @@
         <v>369</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3886,7 @@
         <v>369</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,7 +3906,7 @@
         <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>369</v>
@@ -3918,7 +3924,7 @@
         <v>370</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>163</v>
@@ -3938,10 +3944,10 @@
         <v>199</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>369</v>
@@ -3953,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>369</v>
@@ -3962,7 +3968,7 @@
         <v>370</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>374</v>
@@ -3991,7 +3997,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>369</v>
@@ -4000,7 +4006,7 @@
         <v>370</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -4026,7 +4032,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>369</v>
@@ -4035,7 +4041,7 @@
         <v>370</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>369</v>
@@ -4076,7 +4082,7 @@
         <v>370</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -4102,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>369</v>
@@ -4111,7 +4117,7 @@
         <v>370</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>191</v>
@@ -4131,7 +4137,7 @@
         <v>370</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>370</v>
@@ -4140,7 +4146,7 @@
         <v>370</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>186</v>
@@ -4178,7 +4184,7 @@
         <v>370</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -4204,7 +4210,7 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>369</v>
@@ -4213,7 +4219,7 @@
         <v>370</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,7 +4254,7 @@
         <v>370</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4292,7 @@
         <v>370</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,7 +4318,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>369</v>
@@ -4321,7 +4327,7 @@
         <v>370</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>369</v>
@@ -4359,7 +4365,7 @@
         <v>370</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,7 +4400,7 @@
         <v>369</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4432,7 @@
         <v>370</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>370</v>
@@ -4461,7 +4467,7 @@
         <v>370</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>369</v>
@@ -4502,7 +4508,7 @@
         <v>369</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4540,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>369</v>
@@ -4543,7 +4549,7 @@
         <v>370</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4566,7 @@
         <v>199</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>67</v>
@@ -4581,7 +4587,7 @@
         <v>370</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,10 +4622,10 @@
         <v>370</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,10 +4660,10 @@
         <v>370</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,10 +4698,10 @@
         <v>370</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,7 +4727,7 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>370</v>
@@ -4730,7 +4736,7 @@
         <v>369</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>369</v>
@@ -4771,7 +4777,7 @@
         <v>369</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4809,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>369</v>
@@ -4812,7 +4818,7 @@
         <v>369</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>369</v>
@@ -4853,7 +4859,7 @@
         <v>370</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4879,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>369</v>
@@ -4885,7 +4891,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>369</v>
@@ -4894,7 +4900,7 @@
         <v>370</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>369</v>
@@ -4935,7 +4941,7 @@
         <v>369</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,7 +4973,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>369</v>
@@ -4976,7 +4982,7 @@
         <v>369</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,7 +5002,7 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>369</v>
@@ -5008,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>369</v>
@@ -5017,7 +5023,7 @@
         <v>369</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,10 +5040,10 @@
         <v>199</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>369</v>
@@ -5055,7 +5061,7 @@
         <v>370</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5081,7 @@
         <v>194</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>369</v>
@@ -5087,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>369</v>
@@ -5096,7 +5102,7 @@
         <v>370</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,7 +5122,7 @@
         <v>195</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>369</v>
@@ -5134,7 +5140,7 @@
         <v>370</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5172,7 @@
         <v>370</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,7 +5189,7 @@
         <v>197</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>369</v>
@@ -5201,7 +5207,7 @@
         <v>370</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>192</v>
@@ -5224,7 +5230,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>369</v>
@@ -5236,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>369</v>
@@ -5245,7 +5251,7 @@
         <v>370</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,7 +5271,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>369</v>
@@ -5277,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>369</v>
@@ -5286,7 +5292,7 @@
         <v>370</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5309,7 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>369</v>
@@ -5315,7 +5321,7 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>369</v>
@@ -5324,7 +5330,7 @@
         <v>370</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,7 +5365,7 @@
         <v>370</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>168</v>
@@ -5388,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>369</v>
@@ -5397,7 +5403,7 @@
         <v>370</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -5414,7 +5420,7 @@
         <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>369</v>
@@ -5426,7 +5432,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>369</v>
@@ -5435,7 +5441,7 @@
         <v>370</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -5461,7 +5467,7 @@
         <v>370</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -5499,7 +5505,7 @@
         <v>370</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,7 +5537,7 @@
         <v>370</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,7 +5569,7 @@
         <v>370</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5601,7 @@
         <v>370</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
@@ -5609,10 +5615,10 @@
         <v>199</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>369</v>
@@ -5624,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>369</v>
@@ -5633,7 +5639,7 @@
         <v>370</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,7 +5653,7 @@
         <v>199</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>369</v>
@@ -5659,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>369</v>
@@ -5668,7 +5674,7 @@
         <v>370</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,10 +5688,10 @@
         <v>199</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>369</v>
@@ -5703,12 +5709,12 @@
         <v>370</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
@@ -5717,22 +5723,22 @@
         <v>199</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>369</v>
@@ -5741,7 +5747,7 @@
         <v>370</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,7 +5764,7 @@
         <v>369</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>370</v>
@@ -5767,7 +5773,7 @@
         <v>370</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,7 +5793,7 @@
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>369</v>
@@ -5799,7 +5805,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>369</v>
@@ -5808,7 +5814,7 @@
         <v>369</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,7 +5852,7 @@
         <v>369</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>161</v>
@@ -5869,7 +5875,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>369</v>
@@ -5881,7 +5887,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>369</v>
@@ -5890,7 +5896,7 @@
         <v>369</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5922,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>370</v>
@@ -5925,7 +5931,7 @@
         <v>369</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
@@ -5942,13 +5948,13 @@
         <v>369</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>369</v>
@@ -5957,7 +5963,7 @@
         <v>370</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,7 +5995,7 @@
         <v>370</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6009,7 @@
         <v>201</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>144</v>
@@ -6027,10 +6033,10 @@
         <v>370</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6053,7 @@
         <v>155</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>369</v>
@@ -6059,7 +6065,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>369</v>
@@ -6068,7 +6074,7 @@
         <v>369</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6100,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>369</v>
@@ -6103,7 +6109,7 @@
         <v>370</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6135,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>369</v>
@@ -6138,7 +6144,7 @@
         <v>370</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6182,7 @@
         <v>370</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,10 +6196,10 @@
         <v>201</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>369</v>
@@ -6211,10 +6217,10 @@
         <v>370</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>172</v>
@@ -6243,7 +6249,7 @@
         <v>370</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>373</v>
@@ -6278,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>369</v>
@@ -6287,7 +6293,7 @@
         <v>370</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>165</v>
@@ -6319,7 +6325,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>369</v>
@@ -6328,10 +6334,10 @@
         <v>370</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6366,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>369</v>
@@ -6369,10 +6375,10 @@
         <v>369</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>165</v>
@@ -6401,7 +6407,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>369</v>
@@ -6410,7 +6416,7 @@
         <v>370</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6449,7 @@
         <v>370</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6475,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>369</v>
@@ -6478,7 +6484,7 @@
         <v>369</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6505,7 +6511,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>369</v>
@@ -6514,10 +6520,10 @@
         <v>370</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6558,7 @@
         <v>370</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6572,7 @@
         <v>199</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>369</v>
@@ -6587,7 +6593,7 @@
         <v>369</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>369</v>
@@ -6622,10 +6628,10 @@
         <v>370</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,7 +6663,7 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>369</v>
@@ -6666,7 +6672,7 @@
         <v>370</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6683,7 @@
         <v>199</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -6694,7 +6700,7 @@
         <v>370</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6725,7 @@
         <v>370</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +6760,7 @@
         <v>370</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>191</v>
@@ -6777,7 +6783,7 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>369</v>
@@ -6789,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>369</v>
@@ -6798,7 +6804,7 @@
         <v>370</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,7 +6830,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>369</v>
@@ -6833,7 +6839,7 @@
         <v>370</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>370</v>
@@ -6868,7 +6874,7 @@
         <v>369</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,7 +6909,7 @@
         <v>369</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>369</v>
@@ -6944,7 +6950,7 @@
         <v>370</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,7 +6982,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>369</v>
@@ -6985,10 +6991,10 @@
         <v>370</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,7 +7026,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>369</v>
@@ -7029,7 +7035,7 @@
         <v>369</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -7061,7 +7067,7 @@
         <v>370</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>190</v>
@@ -7090,7 +7096,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>369</v>
@@ -7099,7 +7105,7 @@
         <v>370</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,7 +7137,7 @@
         <v>370</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,7 +7169,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>369</v>
@@ -7172,7 +7178,7 @@
         <v>370</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,7 +7210,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>369</v>
@@ -7213,7 +7219,7 @@
         <v>370</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,7 +7239,7 @@
         <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
@@ -7248,7 +7254,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>369</v>
@@ -7257,10 +7263,10 @@
         <v>370</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,7 +7283,7 @@
         <v>107</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
@@ -7290,7 +7296,7 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>369</v>
@@ -7299,7 +7305,7 @@
         <v>370</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,7 +7326,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>369</v>
@@ -7338,7 +7344,7 @@
         <v>370</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -7371,7 +7377,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>369</v>
@@ -7380,7 +7386,7 @@
         <v>370</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,7 +7406,7 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>369</v>
@@ -7418,7 +7424,7 @@
         <v>370</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>369</v>
@@ -7453,7 +7459,7 @@
         <v>370</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,10 +7488,10 @@
         <v>370</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
@@ -7511,7 +7517,7 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>369</v>
@@ -7520,7 +7526,7 @@
         <v>370</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -7546,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>369</v>
@@ -7555,7 +7561,7 @@
         <v>369</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -7590,7 +7596,7 @@
         <v>370</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>203</v>
@@ -7607,7 +7613,7 @@
         <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>369</v>
@@ -7616,7 +7622,7 @@
         <v>377</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>370</v>
@@ -7625,7 +7631,7 @@
         <v>370</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q142" s="12" t="s">
         <v>378</v>
@@ -7633,25 +7639,25 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="H143" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>369</v>
@@ -7660,97 +7666,97 @@
         <v>370</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I144" s="2" t="s">
+      <c r="K144" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q144" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q145" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q145" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>369</v>
@@ -7759,33 +7765,33 @@
         <v>370</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="H147" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>379</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>369</v>
@@ -7794,34 +7800,34 @@
         <v>370</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="L148" s="2" t="s">
         <v>369</v>
       </c>
@@ -7829,28 +7835,28 @@
         <v>370</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="L149" s="2" t="s">
         <v>370</v>
       </c>
@@ -7858,33 +7864,33 @@
         <v>369</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>369</v>
@@ -7893,30 +7899,30 @@
         <v>370</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>369</v>
@@ -7925,30 +7931,30 @@
         <v>370</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>369</v>
@@ -7957,30 +7963,30 @@
         <v>370</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>369</v>
@@ -7989,27 +7995,27 @@
         <v>370</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>369</v>
@@ -8018,24 +8024,24 @@
         <v>370</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>369</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>369</v>
@@ -8044,7 +8050,7 @@
         <v>370</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBBAE2E-28B9-4494-85FA-4F8755F38AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926554C8-974B-46AE-ADF1-DF9D945A5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$155</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="597">
   <si>
     <t>Item</t>
   </si>
@@ -1473,12 +1473,6 @@
   </si>
   <si>
     <t>Bijzin z Verb</t>
-  </si>
-  <si>
-    <t>special1</t>
-  </si>
-  <si>
-    <t>special2</t>
   </si>
   <si>
     <t>star2</t>
@@ -1905,6 +1899,24 @@
            (@lemma="hebben" or @lemma="worden" or @lemma="zijn") and
        parent::node[node[@rel="vc" and ((@cat="ppart" and node[@rel="hd"]) or (@pt="ww" and @wvorm="vd"))]
        ]) or %robusthwwvd%]</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>variants</t>
+  </si>
+  <si>
+    <t>unused1</t>
+  </si>
+  <si>
+    <t>unused2</t>
+  </si>
+  <si>
+    <t>tarsp2005</t>
   </si>
 </sst>
 </file>
@@ -2322,14 +2334,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R155"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="P139" sqref="P139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2345,11 +2358,11 @@
     <col min="10" max="10" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.21875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="2"/>
+    <col min="13" max="19" width="16.21875" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2393,16 +2406,25 @@
         <v>459</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>471</v>
+        <v>591</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>472</v>
+        <v>592</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -2416,7 +2438,7 @@
         <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -2434,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>369</v>
@@ -2446,10 +2468,10 @@
         <v>460</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>230</v>
       </c>
@@ -2486,11 +2508,11 @@
       <c r="N3" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>231</v>
       </c>
@@ -2527,8 +2549,11 @@
       <c r="N4" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q4" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>232</v>
       </c>
@@ -2562,11 +2587,11 @@
       <c r="N5" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>233</v>
       </c>
@@ -2589,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>369</v>
@@ -2600,14 +2625,14 @@
       <c r="N6" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>234</v>
       </c>
@@ -2630,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>370</v>
@@ -2642,7 +2667,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>235</v>
       </c>
@@ -2680,7 +2705,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>236</v>
       </c>
@@ -2717,11 +2742,11 @@
       <c r="N9" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>237</v>
       </c>
@@ -2744,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>369</v>
@@ -2756,7 +2781,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>238</v>
       </c>
@@ -2791,7 +2816,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>239</v>
       </c>
@@ -2808,7 +2833,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>369</v>
@@ -2820,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>369</v>
@@ -2832,7 +2857,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>240</v>
       </c>
@@ -2867,7 +2892,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>241</v>
       </c>
@@ -2893,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>370</v>
@@ -2905,7 +2930,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>242</v>
       </c>
@@ -2928,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>369</v>
@@ -2940,7 +2965,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>243</v>
       </c>
@@ -2957,7 +2982,7 @@
         <v>369</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>370</v>
@@ -2969,7 +2994,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>244</v>
       </c>
@@ -3001,7 +3026,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>245</v>
       </c>
@@ -3039,10 +3064,10 @@
         <v>460</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>246</v>
       </c>
@@ -3068,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>369</v>
@@ -3080,7 +3105,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>247</v>
       </c>
@@ -3112,7 +3137,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>248</v>
       </c>
@@ -3135,7 +3160,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>369</v>
@@ -3147,7 +3172,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>249</v>
       </c>
@@ -3170,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>369</v>
@@ -3182,7 +3207,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>250</v>
       </c>
@@ -3199,7 +3224,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>369</v>
@@ -3211,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>369</v>
@@ -3223,7 +3248,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>251</v>
       </c>
@@ -3255,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>369</v>
@@ -3266,11 +3291,11 @@
       <c r="N24" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T24" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>252</v>
       </c>
@@ -3302,7 +3327,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>253</v>
       </c>
@@ -3325,7 +3350,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>369</v>
@@ -3336,11 +3361,11 @@
       <c r="N26" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T26" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>254</v>
       </c>
@@ -3375,7 +3400,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>255</v>
       </c>
@@ -3410,7 +3435,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>256</v>
       </c>
@@ -3444,11 +3469,11 @@
       <c r="N29" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>257</v>
       </c>
@@ -3471,7 +3496,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>369</v>
@@ -3482,11 +3507,11 @@
       <c r="N30" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>258</v>
       </c>
@@ -3521,7 +3546,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>259</v>
       </c>
@@ -3559,7 +3584,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>260</v>
       </c>
@@ -3600,7 +3625,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>261</v>
       </c>
@@ -3623,7 +3648,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>369</v>
@@ -3635,7 +3660,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>262</v>
       </c>
@@ -3670,7 +3695,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>263</v>
       </c>
@@ -3705,7 +3730,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -3728,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>369</v>
@@ -3740,7 +3765,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>265</v>
       </c>
@@ -3766,7 +3791,7 @@
         <v>379</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>369</v>
@@ -3778,7 +3803,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>266</v>
       </c>
@@ -3804,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>369</v>
@@ -3816,7 +3841,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -3839,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>369</v>
@@ -3850,11 +3875,11 @@
       <c r="N40" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q40" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T40" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>268</v>
       </c>
@@ -3889,7 +3914,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>269</v>
       </c>
@@ -3926,11 +3951,11 @@
       <c r="N42" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="T42" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>270</v>
       </c>
@@ -3959,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>369</v>
@@ -3970,11 +3995,11 @@
       <c r="N43" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>271</v>
       </c>
@@ -3997,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>369</v>
@@ -4009,7 +4034,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>272</v>
       </c>
@@ -4032,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>369</v>
@@ -4044,7 +4069,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>273</v>
       </c>
@@ -4073,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>369</v>
@@ -4085,7 +4110,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>274</v>
       </c>
@@ -4108,7 +4133,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>369</v>
@@ -4119,11 +4144,11 @@
       <c r="N47" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="T47" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>275</v>
       </c>
@@ -4137,7 +4162,7 @@
         <v>370</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>370</v>
@@ -4148,11 +4173,11 @@
       <c r="N48" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q48" s="6" t="s">
+      <c r="T48" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>276</v>
       </c>
@@ -4187,7 +4212,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>277</v>
       </c>
@@ -4222,7 +4247,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>278</v>
       </c>
@@ -4257,7 +4282,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>279</v>
       </c>
@@ -4295,7 +4320,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>280</v>
       </c>
@@ -4318,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>369</v>
@@ -4330,7 +4355,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>281</v>
       </c>
@@ -4356,7 +4381,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>369</v>
@@ -4368,7 +4393,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>282</v>
       </c>
@@ -4403,7 +4428,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>283</v>
       </c>
@@ -4434,8 +4459,11 @@
       <c r="N56" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q56" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>284</v>
       </c>
@@ -4458,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>370</v>
@@ -4470,7 +4498,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>285</v>
       </c>
@@ -4499,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>369</v>
@@ -4511,7 +4539,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>286</v>
       </c>
@@ -4540,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>369</v>
@@ -4552,7 +4580,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>287</v>
       </c>
@@ -4589,8 +4617,11 @@
       <c r="N60" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q60" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>288</v>
       </c>
@@ -4624,11 +4655,11 @@
       <c r="N61" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="T61" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>289</v>
       </c>
@@ -4662,11 +4693,11 @@
       <c r="N62" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="T62" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>290</v>
       </c>
@@ -4700,11 +4731,11 @@
       <c r="N63" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="T63" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>291</v>
       </c>
@@ -4739,7 +4770,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>292</v>
       </c>
@@ -4768,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>369</v>
@@ -4780,7 +4811,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>293</v>
       </c>
@@ -4809,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>369</v>
@@ -4821,7 +4852,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>294</v>
       </c>
@@ -4850,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>369</v>
@@ -4862,7 +4893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>295</v>
       </c>
@@ -4879,7 +4910,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>369</v>
@@ -4891,7 +4922,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>369</v>
@@ -4903,7 +4934,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>296</v>
       </c>
@@ -4932,7 +4963,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>369</v>
@@ -4944,7 +4975,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>297</v>
       </c>
@@ -4973,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>369</v>
@@ -4985,7 +5016,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>298</v>
       </c>
@@ -5002,7 +5033,7 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>369</v>
@@ -5014,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>369</v>
@@ -5026,7 +5057,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>299</v>
       </c>
@@ -5043,7 +5074,7 @@
         <v>423</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>369</v>
@@ -5064,7 +5095,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>300</v>
       </c>
@@ -5081,7 +5112,7 @@
         <v>194</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>369</v>
@@ -5093,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>369</v>
@@ -5105,7 +5136,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>301</v>
       </c>
@@ -5142,8 +5173,11 @@
       <c r="N74" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q74" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>302</v>
       </c>
@@ -5174,8 +5208,11 @@
       <c r="N75" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q75" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>303</v>
       </c>
@@ -5209,11 +5246,11 @@
       <c r="N76" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="T76" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>304</v>
       </c>
@@ -5230,7 +5267,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>369</v>
@@ -5242,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>369</v>
@@ -5254,7 +5291,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>305</v>
       </c>
@@ -5271,7 +5308,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>369</v>
@@ -5283,7 +5320,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>369</v>
@@ -5295,7 +5332,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>306</v>
       </c>
@@ -5309,7 +5346,7 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>369</v>
@@ -5333,7 +5370,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>307</v>
       </c>
@@ -5367,11 +5404,11 @@
       <c r="N80" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>308</v>
       </c>
@@ -5394,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>369</v>
@@ -5406,7 +5443,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>309</v>
       </c>
@@ -5432,7 +5469,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>369</v>
@@ -5444,7 +5481,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>310</v>
       </c>
@@ -5470,7 +5507,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>311</v>
       </c>
@@ -5507,8 +5544,11 @@
       <c r="N84" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q84" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>312</v>
       </c>
@@ -5540,7 +5580,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>313</v>
       </c>
@@ -5572,7 +5612,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>314</v>
       </c>
@@ -5604,7 +5644,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>315</v>
       </c>
@@ -5618,7 +5658,7 @@
         <v>399</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>369</v>
@@ -5630,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>369</v>
@@ -5642,7 +5682,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>316</v>
       </c>
@@ -5665,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>369</v>
@@ -5677,7 +5717,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>317</v>
       </c>
@@ -5712,7 +5752,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>404</v>
       </c>
@@ -5726,7 +5766,7 @@
         <v>400</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>369</v>
@@ -5750,7 +5790,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>318</v>
       </c>
@@ -5764,7 +5804,7 @@
         <v>369</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>370</v>
@@ -5776,7 +5816,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>319</v>
       </c>
@@ -5805,7 +5845,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>369</v>
@@ -5817,7 +5857,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>320</v>
       </c>
@@ -5854,11 +5894,11 @@
       <c r="N94" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q94" s="2" t="s">
+      <c r="T94" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>321</v>
       </c>
@@ -5875,7 +5915,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>369</v>
@@ -5887,7 +5927,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>369</v>
@@ -5899,7 +5939,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>322</v>
       </c>
@@ -5934,7 +5974,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>323</v>
       </c>
@@ -5954,7 +5994,7 @@
         <v>469</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>369</v>
@@ -5966,7 +6006,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>324</v>
       </c>
@@ -5997,8 +6037,11 @@
       <c r="N98" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q98" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>325</v>
       </c>
@@ -6036,10 +6079,10 @@
         <v>460</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>326</v>
       </c>
@@ -6077,7 +6120,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>327</v>
       </c>
@@ -6100,7 +6143,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>369</v>
@@ -6112,7 +6155,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>328</v>
       </c>
@@ -6135,7 +6178,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>369</v>
@@ -6147,7 +6190,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>329</v>
       </c>
@@ -6185,7 +6228,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>330</v>
       </c>
@@ -6220,13 +6263,16 @@
         <v>460</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Q104" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="T104" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>331</v>
       </c>
@@ -6251,11 +6297,11 @@
       <c r="N105" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q105" s="2" t="s">
+      <c r="T105" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>332</v>
       </c>
@@ -6284,7 +6330,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>369</v>
@@ -6295,11 +6341,11 @@
       <c r="N106" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q106" s="2" t="s">
+      <c r="T106" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>333</v>
       </c>
@@ -6325,7 +6371,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>369</v>
@@ -6336,11 +6382,11 @@
       <c r="N107" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q107" s="2" t="s">
+      <c r="T107" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>334</v>
       </c>
@@ -6366,7 +6412,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>369</v>
@@ -6378,13 +6424,13 @@
         <v>460</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q108" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="T108" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>335</v>
       </c>
@@ -6407,7 +6453,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>369</v>
@@ -6419,7 +6465,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>336</v>
       </c>
@@ -6451,8 +6497,11 @@
       <c r="N110" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q110" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>337</v>
       </c>
@@ -6475,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>369</v>
@@ -6487,7 +6536,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>338</v>
       </c>
@@ -6511,7 +6560,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>369</v>
@@ -6522,11 +6571,11 @@
       <c r="N112" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q112" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T112" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>339</v>
       </c>
@@ -6561,7 +6610,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>340</v>
       </c>
@@ -6572,7 +6621,7 @@
         <v>199</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>369</v>
@@ -6596,7 +6645,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>341</v>
       </c>
@@ -6619,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>369</v>
@@ -6630,11 +6679,11 @@
       <c r="N115" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q115" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T115" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>342</v>
       </c>
@@ -6675,7 +6724,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>343</v>
       </c>
@@ -6703,7 +6752,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>344</v>
       </c>
@@ -6728,7 +6777,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>345</v>
       </c>
@@ -6762,11 +6811,11 @@
       <c r="N119" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q119" s="2" t="s">
+      <c r="T119" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>346</v>
       </c>
@@ -6783,7 +6832,7 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>369</v>
@@ -6795,7 +6844,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>369</v>
@@ -6807,7 +6856,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>347</v>
       </c>
@@ -6830,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>369</v>
@@ -6842,7 +6891,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>348</v>
       </c>
@@ -6865,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>370</v>
@@ -6877,7 +6926,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>349</v>
       </c>
@@ -6912,7 +6961,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>350</v>
       </c>
@@ -6941,7 +6990,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>369</v>
@@ -6953,7 +7002,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>351</v>
       </c>
@@ -6982,7 +7031,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>369</v>
@@ -6993,11 +7042,11 @@
       <c r="N125" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q125" s="2" t="s">
+      <c r="T125" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>352</v>
       </c>
@@ -7026,7 +7075,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>369</v>
@@ -7038,7 +7087,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>353</v>
       </c>
@@ -7069,11 +7118,11 @@
       <c r="N127" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q127" s="2" t="s">
+      <c r="T127" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>354</v>
       </c>
@@ -7096,7 +7145,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>369</v>
@@ -7108,7 +7157,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>355</v>
       </c>
@@ -7140,7 +7189,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>356</v>
       </c>
@@ -7169,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>369</v>
@@ -7181,7 +7230,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>357</v>
       </c>
@@ -7210,7 +7259,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>369</v>
@@ -7222,7 +7271,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>358</v>
       </c>
@@ -7254,7 +7303,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>369</v>
@@ -7266,10 +7315,10 @@
         <v>460</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>359</v>
       </c>
@@ -7308,7 +7357,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>360</v>
       </c>
@@ -7326,7 +7375,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>369</v>
@@ -7347,7 +7396,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>361</v>
       </c>
@@ -7377,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>369</v>
@@ -7389,7 +7438,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>362</v>
       </c>
@@ -7406,7 +7455,7 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>369</v>
@@ -7427,7 +7476,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>363</v>
       </c>
@@ -7462,7 +7511,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>364</v>
       </c>
@@ -7490,11 +7539,11 @@
       <c r="N138" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q138" s="2" t="s">
+      <c r="T138" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>365</v>
       </c>
@@ -7528,8 +7577,11 @@
       <c r="N139" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="Q139" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>366</v>
       </c>
@@ -7552,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>369</v>
@@ -7564,7 +7616,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>367</v>
       </c>
@@ -7598,11 +7650,11 @@
       <c r="N141" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q141" s="2" t="s">
+      <c r="T141" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>376</v>
       </c>
@@ -7613,7 +7665,7 @@
         <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>369</v>
@@ -7633,11 +7685,11 @@
       <c r="N142" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q142" s="12" t="s">
+      <c r="T142" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>408</v>
       </c>
@@ -7668,11 +7720,11 @@
       <c r="N143" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q143" s="2" t="s">
+      <c r="T143" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>409</v>
       </c>
@@ -7700,11 +7752,11 @@
       <c r="N144" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q144" s="2" t="s">
+      <c r="T144" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>410</v>
       </c>
@@ -7732,11 +7784,11 @@
       <c r="N145" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q145" s="2" t="s">
+      <c r="T145" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>418</v>
       </c>
@@ -7744,7 +7796,7 @@
         <v>414</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>369</v>
@@ -7756,7 +7808,7 @@
         <v>468</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>369</v>
@@ -7767,19 +7819,19 @@
       <c r="N146" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q146" s="2" t="s">
+      <c r="T146" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>369</v>
@@ -7791,7 +7843,7 @@
         <v>379</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>369</v>
@@ -7803,7 +7855,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>422</v>
       </c>
@@ -7817,7 +7869,7 @@
         <v>427</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>369</v>
@@ -7838,7 +7890,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>462</v>
       </c>
@@ -7866,19 +7918,19 @@
       <c r="N149" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q149" s="2" t="s">
+      <c r="T149" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>369</v>
@@ -7890,7 +7942,7 @@
         <v>429</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>369</v>
@@ -7902,15 +7954,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>369</v>
@@ -7919,10 +7971,10 @@
         <v>420</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>369</v>
@@ -7934,15 +7986,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>369</v>
@@ -7954,7 +8006,7 @@
         <v>469</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>369</v>
@@ -7966,15 +8018,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>369</v>
@@ -7983,10 +8035,10 @@
         <v>420</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>369</v>
@@ -7997,10 +8049,13 @@
       <c r="N153" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q153" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>414</v>
@@ -8015,7 +8070,7 @@
         <v>420</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>369</v>
@@ -8027,21 +8082,21 @@
         <v>461</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>369</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>369</v>
@@ -8054,7 +8109,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R155" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U155" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N146">
     <sortCondition ref="E2:E146"/>
     <sortCondition ref="I2:I146"/>

--- a/methods/TARSP Index Current.xlsx
+++ b/methods/TARSP Index Current.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926554C8-974B-46AE-ADF1-DF9D945A5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAE39AF-ABBE-4A45-B26A-A61DDCD0FC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$155</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="598">
   <si>
     <t>Item</t>
   </si>
@@ -1917,6 +1917,9 @@
   </si>
   <si>
     <t>tarsp2005</t>
+  </si>
+  <si>
+    <t>literal</t>
   </si>
 </sst>
 </file>
@@ -2335,14 +2338,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U155"/>
+  <dimension ref="A1:V155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="P139" sqref="P139"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2358,11 +2361,11 @@
     <col min="10" max="10" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="16.21875" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2"/>
+    <col min="13" max="20" width="16.21875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2406,25 +2409,28 @@
         <v>459</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -2467,11 +2473,11 @@
       <c r="N2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>230</v>
       </c>
@@ -2508,11 +2514,11 @@
       <c r="N3" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>231</v>
       </c>
@@ -2549,11 +2555,11 @@
       <c r="N4" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>232</v>
       </c>
@@ -2587,11 +2593,11 @@
       <c r="N5" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>233</v>
       </c>
@@ -2625,14 +2631,14 @@
       <c r="N6" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>234</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>235</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>236</v>
       </c>
@@ -2742,11 +2748,11 @@
       <c r="N9" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>237</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>238</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>239</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>240</v>
       </c>
@@ -2892,7 +2898,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>241</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>242</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>243</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>244</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>245</v>
       </c>
@@ -3063,11 +3069,11 @@
       <c r="N18" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>246</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>247</v>
       </c>
@@ -3137,7 +3143,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>248</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>249</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>250</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>251</v>
       </c>
@@ -3291,11 +3297,11 @@
       <c r="N24" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>252</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>253</v>
       </c>
@@ -3361,11 +3367,11 @@
       <c r="N26" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="U26" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>254</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>255</v>
       </c>
@@ -3435,7 +3441,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>256</v>
       </c>
@@ -3469,11 +3475,11 @@
       <c r="N29" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="U29" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>257</v>
       </c>
@@ -3507,11 +3513,11 @@
       <c r="N30" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="U30" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>258</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>259</v>
       </c>
@@ -3584,7 +3590,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>260</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>261</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>262</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>263</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -3765,7 +3771,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>265</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>266</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -3875,11 +3881,11 @@
       <c r="N40" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="U40" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>268</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>269</v>
       </c>
@@ -3951,11 +3957,11 @@
       <c r="N42" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="U42" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>270</v>
       </c>
@@ -3995,11 +4001,11 @@
       <c r="N43" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="U43" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>271</v>
       </c>
@@ -4034,7 +4040,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>272</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>273</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>274</v>
       </c>
@@ -4144,11 +4150,11 @@
       <c r="N47" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="U47" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>275</v>
       </c>
@@ -4173,11 +4179,11 @@
       <c r="N48" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T48" s="6" t="s">
+      <c r="U48" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>276</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>277</v>
       </c>
@@ -4247,7 +4253,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>278</v>
       </c>
@@ -4282,7 +4288,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>279</v>
       </c>
@@ -4320,7 +4326,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>280</v>
       </c>
@@ -4355,7 +4361,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>281</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>282</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>283</v>
       </c>
@@ -4459,11 +4465,11 @@
       <c r="N56" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="R56" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>284</v>
       </c>
@@ -4498,7 +4504,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>285</v>
       </c>
@@ -4539,7 +4545,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>286</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>287</v>
       </c>
@@ -4617,11 +4623,11 @@
       <c r="N60" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="R60" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>288</v>
       </c>
@@ -4655,11 +4661,11 @@
       <c r="N61" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T61" s="2" t="s">
+      <c r="U61" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>289</v>
       </c>
@@ -4693,11 +4699,11 @@
       <c r="N62" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="U62" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>290</v>
       </c>
@@ -4731,11 +4737,11 @@
       <c r="N63" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T63" s="2" t="s">
+      <c r="U63" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>291</v>
       </c>
@@ -4770,7 +4776,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>292</v>
       </c>
@@ -4811,7 +4817,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>293</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>294</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>295</v>
       </c>
@@ -4934,7 +4940,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>296</v>
       </c>
@@ -4975,7 +4981,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>297</v>
       </c>
@@ -5016,7 +5022,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>298</v>
       </c>
@@ -5057,7 +5063,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>299</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>300</v>
       </c>
@@ -5136,7 +5142,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>301</v>
       </c>
@@ -5173,11 +5179,11 @@
       <c r="N74" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="R74" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>302</v>
       </c>
@@ -5208,11 +5214,11 @@
       <c r="N75" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="R75" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>303</v>
       </c>
@@ -5246,11 +5252,11 @@
       <c r="N76" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T76" s="2" t="s">
+      <c r="U76" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>304</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>305</v>
       </c>
@@ -5332,7 +5338,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>306</v>
       </c>
@@ -5370,7 +5376,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>307</v>
       </c>
@@ -5404,11 +5410,11 @@
       <c r="N80" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="U80" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>308</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>309</v>
       </c>
@@ -5481,7 +5487,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>310</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>311</v>
       </c>
@@ -5544,11 +5550,11 @@
       <c r="N84" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="R84" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>312</v>
       </c>
@@ -5580,7 +5586,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>313</v>
       </c>
@@ -5612,7 +5618,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>314</v>
       </c>
@@ -5644,7 +5650,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>315</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>316</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>317</v>
       </c>
@@ -5752,7 +5758,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>404</v>
       </c>
@@ -5790,7 +5796,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>318</v>
       </c>
@@ -5816,7 +5822,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>319</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>320</v>
       </c>
@@ -5894,11 +5900,11 @@
       <c r="N94" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T94" s="2" t="s">
+      <c r="U94" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>321</v>
       </c>
@@ -5939,7 +5945,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>322</v>
       </c>
@@ -5974,7 +5980,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>323</v>
       </c>
@@ -6006,7 +6012,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>324</v>
       </c>
@@ -6037,11 +6043,11 @@
       <c r="N98" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q98" s="2" t="s">
+      <c r="R98" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>325</v>
       </c>
@@ -6078,11 +6084,11 @@
       <c r="N99" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O99" s="2" t="s">
+      <c r="P99" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>326</v>
       </c>
@@ -6120,7 +6126,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>327</v>
       </c>
@@ -6155,7 +6161,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>328</v>
       </c>
@@ -6190,7 +6196,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>329</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>330</v>
       </c>
@@ -6262,17 +6268,17 @@
       <c r="N104" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O104" s="2" t="s">
+      <c r="P104" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="Q104" s="2" t="s">
+      <c r="R104" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="T104" s="2" t="s">
+      <c r="U104" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>331</v>
       </c>
@@ -6297,11 +6303,11 @@
       <c r="N105" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T105" s="2" t="s">
+      <c r="U105" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>332</v>
       </c>
@@ -6341,11 +6347,11 @@
       <c r="N106" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T106" s="2" t="s">
+      <c r="U106" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>333</v>
       </c>
@@ -6382,11 +6388,11 @@
       <c r="N107" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T107" s="2" t="s">
+      <c r="U107" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>334</v>
       </c>
@@ -6423,14 +6429,14 @@
       <c r="N108" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O108" s="2" t="s">
+      <c r="P108" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="T108" s="2" t="s">
+      <c r="U108" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>335</v>
       </c>
@@ -6465,7 +6471,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>336</v>
       </c>
@@ -6497,11 +6503,11 @@
       <c r="N110" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q110" s="2" t="s">
+      <c r="R110" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>337</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>338</v>
       </c>
@@ -6571,11 +6577,11 @@
       <c r="N112" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T112" s="3" t="s">
+      <c r="U112" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>339</v>
       </c>
@@ -6610,7 +6616,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>340</v>
       </c>
@@ -6645,7 +6651,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>341</v>
       </c>
@@ -6679,11 +6685,11 @@
       <c r="N115" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T115" s="2" t="s">
+      <c r="U115" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>342</v>
       </c>
@@ -6724,7 +6730,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>343</v>
       </c>
@@ -6752,7 +6758,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>344</v>
       </c>
@@ -6777,7 +6783,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>345</v>
       </c>
@@ -6811,11 +6817,11 @@
       <c r="N119" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T119" s="2" t="s">
+      <c r="U119" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>346</v>
       </c>
@@ -6856,7 +6862,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>347</v>
       </c>
@@ -6891,7 +6897,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>348</v>
       </c>
@@ -6926,7 +6932,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>349</v>
       </c>
@@ -6961,7 +6967,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>350</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>351</v>
       </c>
@@ -7042,11 +7048,11 @@
       <c r="N125" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T125" s="2" t="s">
+      <c r="U125" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>352</v>
       </c>
@@ -7087,7 +7093,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>353</v>
       </c>
@@ -7118,11 +7124,11 @@
       <c r="N127" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T127" s="2" t="s">
+      <c r="U127" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>354</v>
       </c>
@@ -7157,7 +7163,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>355</v>
       </c>
@@ -7189,7 +7195,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>356</v>
       </c>
@@ -7230,7 +7236,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>357</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>358</v>
       </c>
@@ -7314,11 +7320,11 @@
       <c r="N132" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O132" s="2" t="s">
+      <c r="P132" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>359</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>360</v>
       </c>
@@ -7396,7 +7402,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>361</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>362</v>
       </c>
@@ -7476,7 +7482,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>363</v>
       </c>
@@ -7511,7 +7517,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>364</v>
       </c>
@@ -7539,11 +7545,11 @@
       <c r="N138" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T138" s="2" t="s">
+      <c r="U138" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>365</v>
       </c>
@@ -7577,11 +7583,11 @@
       <c r="N139" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q139" s="2" t="s">
+      <c r="R139" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>366</v>
       </c>
@@ -7616,7 +7622,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>367</v>
       </c>
@@ -7650,11 +7656,11 @@
       <c r="N141" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T141" s="2" t="s">
+      <c r="U141" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>376</v>
       </c>
@@ -7685,11 +7691,11 @@
       <c r="N142" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T142" s="12" t="s">
+      <c r="U142" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>408</v>
       </c>
@@ -7720,11 +7726,11 @@
       <c r="N143" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T143" s="2" t="s">
+      <c r="U143" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>409</v>
       </c>
@@ -7752,11 +7758,11 @@
       <c r="N144" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T144" s="2" t="s">
+      <c r="U144" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>410</v>
       </c>
@@ -7784,11 +7790,11 @@
       <c r="N145" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T145" s="2" t="s">
+      <c r="U145" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>418</v>
       </c>
@@ -7819,11 +7825,11 @@
       <c r="N146" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T146" s="2" t="s">
+      <c r="U146" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>474</v>
       </c>
@@ -7855,7 +7861,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>422</v>
       </c>
@@ -7890,7 +7896,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>462</v>
       </c>
@@ -7918,11 +7924,11 @@
       <c r="N149" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T149" s="2" t="s">
+      <c r="U149" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>476</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>477</v>
       </c>
@@ -7986,7 +7992,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>478</v>
       </c>
@@ -8018,7 +8024,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>479</v>
       </c>
@@ -8049,11 +8055,11 @@
       <c r="N153" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q153" s="2" t="s">
+      <c r="R153" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>484</v>
       </c>
@@ -8082,7 +8088,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>510</v>
       </c>
@@ -8109,7 +8115,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U155" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:V155" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="9">
       <filters>
         <filter val="7"/>
